--- a/Översikt MUNKFORS.xlsx
+++ b/Översikt MUNKFORS.xlsx
@@ -572,7 +572,7 @@
         <v>43426</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -634,7 +634,7 @@
         <v>43446</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -691,7 +691,7 @@
         <v>43468</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>43472</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -805,7 +805,7 @@
         <v>43472</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -862,7 +862,7 @@
         <v>43573</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -924,7 +924,7 @@
         <v>43614</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -986,7 +986,7 @@
         <v>43640</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1048,7 +1048,7 @@
         <v>43640</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1110,7 +1110,7 @@
         <v>43656</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1172,7 +1172,7 @@
         <v>43662</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1234,7 +1234,7 @@
         <v>43682</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1296,7 +1296,7 @@
         <v>43726</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1353,7 +1353,7 @@
         <v>43745</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1410,7 +1410,7 @@
         <v>43780</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1472,7 +1472,7 @@
         <v>43780</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1534,7 +1534,7 @@
         <v>43783</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1591,7 +1591,7 @@
         <v>43787</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1648,7 +1648,7 @@
         <v>43795</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1705,7 +1705,7 @@
         <v>43797</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1767,7 +1767,7 @@
         <v>43802</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1829,7 +1829,7 @@
         <v>43817</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1886,7 +1886,7 @@
         <v>43833</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1948,7 +1948,7 @@
         <v>43837</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2010,7 +2010,7 @@
         <v>43842</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2072,7 +2072,7 @@
         <v>43879</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2129,7 +2129,7 @@
         <v>43888</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2186,7 +2186,7 @@
         <v>43913</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2243,7 +2243,7 @@
         <v>43921</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2305,7 +2305,7 @@
         <v>43941</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2367,7 +2367,7 @@
         <v>44000</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2424,7 +2424,7 @@
         <v>44047</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2486,7 +2486,7 @@
         <v>44061</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         <v>44061</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2610,7 +2610,7 @@
         <v>44077</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2672,7 +2672,7 @@
         <v>44077</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2734,7 +2734,7 @@
         <v>44101</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2791,7 +2791,7 @@
         <v>44101</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2853,7 +2853,7 @@
         <v>44105</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2910,7 +2910,7 @@
         <v>44112</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2967,7 +2967,7 @@
         <v>44124</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3024,7 +3024,7 @@
         <v>44148</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3081,7 +3081,7 @@
         <v>44161</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3138,7 +3138,7 @@
         <v>44217</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3200,7 +3200,7 @@
         <v>44229</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3257,7 +3257,7 @@
         <v>44238</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3314,7 +3314,7 @@
         <v>44258</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3371,7 +3371,7 @@
         <v>44258</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3428,7 +3428,7 @@
         <v>44326</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3485,7 +3485,7 @@
         <v>44382</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         <v>44411</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3604,7 +3604,7 @@
         <v>44411</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3661,7 +3661,7 @@
         <v>44441</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3718,7 +3718,7 @@
         <v>44531</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3775,7 +3775,7 @@
         <v>44531</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3837,7 +3837,7 @@
         <v>44566</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3899,7 +3899,7 @@
         <v>44648</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3956,7 +3956,7 @@
         <v>44741</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4018,7 +4018,7 @@
         <v>44747</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4075,7 +4075,7 @@
         <v>44748</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4132,7 +4132,7 @@
         <v>44763</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4189,7 +4189,7 @@
         <v>44763</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4246,7 +4246,7 @@
         <v>44782</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4303,7 +4303,7 @@
         <v>44783</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4360,7 +4360,7 @@
         <v>44790</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4417,7 +4417,7 @@
         <v>44815</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4474,7 +4474,7 @@
         <v>44826</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4536,7 +4536,7 @@
         <v>44911</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4598,7 +4598,7 @@
         <v>44951</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4655,7 +4655,7 @@
         <v>44966</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4717,7 +4717,7 @@
         <v>44972</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4774,7 +4774,7 @@
         <v>44972</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4831,7 +4831,7 @@
         <v>44972</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4888,7 +4888,7 @@
         <v>44972</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4945,7 +4945,7 @@
         <v>44972</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5002,7 +5002,7 @@
         <v>44972</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
         <v>44972</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5116,7 +5116,7 @@
         <v>44988</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5178,7 +5178,7 @@
         <v>45041</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5235,7 +5235,7 @@
         <v>45098</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5297,7 +5297,7 @@
         <v>45146</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>

--- a/Översikt MUNKFORS.xlsx
+++ b/Översikt MUNKFORS.xlsx
@@ -572,7 +572,7 @@
         <v>43426</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -634,7 +634,7 @@
         <v>43446</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -691,7 +691,7 @@
         <v>43468</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>43472</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -805,7 +805,7 @@
         <v>43472</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -862,7 +862,7 @@
         <v>43573</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -924,7 +924,7 @@
         <v>43614</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -986,7 +986,7 @@
         <v>43640</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1048,7 +1048,7 @@
         <v>43640</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1110,7 +1110,7 @@
         <v>43656</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1172,7 +1172,7 @@
         <v>43662</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1234,7 +1234,7 @@
         <v>43682</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1296,7 +1296,7 @@
         <v>43726</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1353,7 +1353,7 @@
         <v>43745</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1410,7 +1410,7 @@
         <v>43780</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1472,7 +1472,7 @@
         <v>43780</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1534,7 +1534,7 @@
         <v>43783</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1591,7 +1591,7 @@
         <v>43787</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1648,7 +1648,7 @@
         <v>43795</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1705,7 +1705,7 @@
         <v>43797</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1767,7 +1767,7 @@
         <v>43802</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1829,7 +1829,7 @@
         <v>43817</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1886,7 +1886,7 @@
         <v>43833</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1948,7 +1948,7 @@
         <v>43837</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2010,7 +2010,7 @@
         <v>43842</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2072,7 +2072,7 @@
         <v>43879</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2129,7 +2129,7 @@
         <v>43888</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2186,7 +2186,7 @@
         <v>43913</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2243,7 +2243,7 @@
         <v>43921</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2305,7 +2305,7 @@
         <v>43941</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2367,7 +2367,7 @@
         <v>44000</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2424,7 +2424,7 @@
         <v>44047</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2486,7 +2486,7 @@
         <v>44061</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         <v>44061</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2610,7 +2610,7 @@
         <v>44077</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2672,7 +2672,7 @@
         <v>44077</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2734,7 +2734,7 @@
         <v>44101</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2791,7 +2791,7 @@
         <v>44101</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2853,7 +2853,7 @@
         <v>44105</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2910,7 +2910,7 @@
         <v>44112</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2967,7 +2967,7 @@
         <v>44124</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3024,7 +3024,7 @@
         <v>44148</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3081,7 +3081,7 @@
         <v>44161</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3138,7 +3138,7 @@
         <v>44217</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3200,7 +3200,7 @@
         <v>44229</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3257,7 +3257,7 @@
         <v>44238</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3314,7 +3314,7 @@
         <v>44258</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3371,7 +3371,7 @@
         <v>44258</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3428,7 +3428,7 @@
         <v>44326</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3485,7 +3485,7 @@
         <v>44382</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         <v>44411</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3604,7 +3604,7 @@
         <v>44411</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3661,7 +3661,7 @@
         <v>44441</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3718,7 +3718,7 @@
         <v>44531</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3775,7 +3775,7 @@
         <v>44531</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3837,7 +3837,7 @@
         <v>44566</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3899,7 +3899,7 @@
         <v>44648</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3956,7 +3956,7 @@
         <v>44741</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4018,7 +4018,7 @@
         <v>44747</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4075,7 +4075,7 @@
         <v>44748</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4132,7 +4132,7 @@
         <v>44763</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4189,7 +4189,7 @@
         <v>44763</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4246,7 +4246,7 @@
         <v>44782</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4303,7 +4303,7 @@
         <v>44783</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4360,7 +4360,7 @@
         <v>44790</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4417,7 +4417,7 @@
         <v>44815</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4474,7 +4474,7 @@
         <v>44826</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4536,7 +4536,7 @@
         <v>44911</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4598,7 +4598,7 @@
         <v>44951</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4655,7 +4655,7 @@
         <v>44966</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4717,7 +4717,7 @@
         <v>44972</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4774,7 +4774,7 @@
         <v>44972</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4831,7 +4831,7 @@
         <v>44972</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4888,7 +4888,7 @@
         <v>44972</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4945,7 +4945,7 @@
         <v>44972</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5002,7 +5002,7 @@
         <v>44972</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
         <v>44972</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5116,7 +5116,7 @@
         <v>44988</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5178,7 +5178,7 @@
         <v>45041</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5235,7 +5235,7 @@
         <v>45098</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5297,7 +5297,7 @@
         <v>45146</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>

--- a/Översikt MUNKFORS.xlsx
+++ b/Översikt MUNKFORS.xlsx
@@ -572,7 +572,7 @@
         <v>43426</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -634,7 +634,7 @@
         <v>43446</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -691,7 +691,7 @@
         <v>43468</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>43472</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -805,7 +805,7 @@
         <v>43472</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -862,7 +862,7 @@
         <v>43573</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -924,7 +924,7 @@
         <v>43614</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -986,7 +986,7 @@
         <v>43640</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1048,7 +1048,7 @@
         <v>43640</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1110,7 +1110,7 @@
         <v>43656</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1172,7 +1172,7 @@
         <v>43662</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1234,7 +1234,7 @@
         <v>43682</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1296,7 +1296,7 @@
         <v>43726</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1353,7 +1353,7 @@
         <v>43745</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1410,7 +1410,7 @@
         <v>43780</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1472,7 +1472,7 @@
         <v>43780</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1534,7 +1534,7 @@
         <v>43783</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1591,7 +1591,7 @@
         <v>43787</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1648,7 +1648,7 @@
         <v>43795</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1705,7 +1705,7 @@
         <v>43797</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1767,7 +1767,7 @@
         <v>43802</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1829,7 +1829,7 @@
         <v>43817</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1886,7 +1886,7 @@
         <v>43833</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1948,7 +1948,7 @@
         <v>43837</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2010,7 +2010,7 @@
         <v>43842</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2072,7 +2072,7 @@
         <v>43879</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2129,7 +2129,7 @@
         <v>43888</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2186,7 +2186,7 @@
         <v>43913</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2243,7 +2243,7 @@
         <v>43921</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2305,7 +2305,7 @@
         <v>43941</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2367,7 +2367,7 @@
         <v>44000</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2424,7 +2424,7 @@
         <v>44047</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2486,7 +2486,7 @@
         <v>44061</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         <v>44061</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2610,7 +2610,7 @@
         <v>44077</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2672,7 +2672,7 @@
         <v>44077</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2734,7 +2734,7 @@
         <v>44101</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2791,7 +2791,7 @@
         <v>44101</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2853,7 +2853,7 @@
         <v>44105</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2910,7 +2910,7 @@
         <v>44112</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2967,7 +2967,7 @@
         <v>44124</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3024,7 +3024,7 @@
         <v>44148</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3081,7 +3081,7 @@
         <v>44161</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3138,7 +3138,7 @@
         <v>44217</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3200,7 +3200,7 @@
         <v>44229</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3257,7 +3257,7 @@
         <v>44238</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3314,7 +3314,7 @@
         <v>44258</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3371,7 +3371,7 @@
         <v>44258</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3428,7 +3428,7 @@
         <v>44326</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3485,7 +3485,7 @@
         <v>44382</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         <v>44411</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3604,7 +3604,7 @@
         <v>44411</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3661,7 +3661,7 @@
         <v>44441</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3718,7 +3718,7 @@
         <v>44531</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3775,7 +3775,7 @@
         <v>44531</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3837,7 +3837,7 @@
         <v>44566</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3899,7 +3899,7 @@
         <v>44648</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3956,7 +3956,7 @@
         <v>44741</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4018,7 +4018,7 @@
         <v>44747</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4075,7 +4075,7 @@
         <v>44748</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4132,7 +4132,7 @@
         <v>44763</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4189,7 +4189,7 @@
         <v>44763</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4246,7 +4246,7 @@
         <v>44782</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4303,7 +4303,7 @@
         <v>44783</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4360,7 +4360,7 @@
         <v>44790</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4417,7 +4417,7 @@
         <v>44815</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4474,7 +4474,7 @@
         <v>44826</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4536,7 +4536,7 @@
         <v>44911</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4598,7 +4598,7 @@
         <v>44951</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4655,7 +4655,7 @@
         <v>44966</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4717,7 +4717,7 @@
         <v>44972</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4774,7 +4774,7 @@
         <v>44972</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4831,7 +4831,7 @@
         <v>44972</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4888,7 +4888,7 @@
         <v>44972</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4945,7 +4945,7 @@
         <v>44972</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5002,7 +5002,7 @@
         <v>44972</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
         <v>44972</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5116,7 +5116,7 @@
         <v>44988</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5178,7 +5178,7 @@
         <v>45041</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5235,7 +5235,7 @@
         <v>45098</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5297,7 +5297,7 @@
         <v>45146</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>

--- a/Översikt MUNKFORS.xlsx
+++ b/Översikt MUNKFORS.xlsx
@@ -572,7 +572,7 @@
         <v>43426</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -634,7 +634,7 @@
         <v>43446</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -691,7 +691,7 @@
         <v>43468</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>43472</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -805,7 +805,7 @@
         <v>43472</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -862,7 +862,7 @@
         <v>43573</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -924,7 +924,7 @@
         <v>43614</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -986,7 +986,7 @@
         <v>43640</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1048,7 +1048,7 @@
         <v>43640</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1110,7 +1110,7 @@
         <v>43656</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1172,7 +1172,7 @@
         <v>43662</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1234,7 +1234,7 @@
         <v>43682</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1296,7 +1296,7 @@
         <v>43726</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1353,7 +1353,7 @@
         <v>43745</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1410,7 +1410,7 @@
         <v>43780</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1472,7 +1472,7 @@
         <v>43780</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1534,7 +1534,7 @@
         <v>43783</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1591,7 +1591,7 @@
         <v>43787</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1648,7 +1648,7 @@
         <v>43795</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1705,7 +1705,7 @@
         <v>43797</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1767,7 +1767,7 @@
         <v>43802</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1829,7 +1829,7 @@
         <v>43817</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1886,7 +1886,7 @@
         <v>43833</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1948,7 +1948,7 @@
         <v>43837</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2010,7 +2010,7 @@
         <v>43842</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2072,7 +2072,7 @@
         <v>43879</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2129,7 +2129,7 @@
         <v>43888</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2186,7 +2186,7 @@
         <v>43913</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2243,7 +2243,7 @@
         <v>43921</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2305,7 +2305,7 @@
         <v>43941</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2367,7 +2367,7 @@
         <v>44000</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2424,7 +2424,7 @@
         <v>44047</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2486,7 +2486,7 @@
         <v>44061</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         <v>44061</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2610,7 +2610,7 @@
         <v>44077</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2672,7 +2672,7 @@
         <v>44077</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2734,7 +2734,7 @@
         <v>44101</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2791,7 +2791,7 @@
         <v>44101</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2853,7 +2853,7 @@
         <v>44105</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2910,7 +2910,7 @@
         <v>44112</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2967,7 +2967,7 @@
         <v>44124</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3024,7 +3024,7 @@
         <v>44148</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3081,7 +3081,7 @@
         <v>44161</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3138,7 +3138,7 @@
         <v>44217</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3200,7 +3200,7 @@
         <v>44229</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3257,7 +3257,7 @@
         <v>44238</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3314,7 +3314,7 @@
         <v>44258</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3371,7 +3371,7 @@
         <v>44258</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3428,7 +3428,7 @@
         <v>44326</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3485,7 +3485,7 @@
         <v>44382</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         <v>44411</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3604,7 +3604,7 @@
         <v>44411</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3661,7 +3661,7 @@
         <v>44441</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3718,7 +3718,7 @@
         <v>44531</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3775,7 +3775,7 @@
         <v>44531</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3837,7 +3837,7 @@
         <v>44566</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3899,7 +3899,7 @@
         <v>44648</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3956,7 +3956,7 @@
         <v>44741</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4018,7 +4018,7 @@
         <v>44747</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4075,7 +4075,7 @@
         <v>44748</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4132,7 +4132,7 @@
         <v>44763</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4189,7 +4189,7 @@
         <v>44763</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4246,7 +4246,7 @@
         <v>44782</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4303,7 +4303,7 @@
         <v>44783</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4360,7 +4360,7 @@
         <v>44790</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4417,7 +4417,7 @@
         <v>44815</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4474,7 +4474,7 @@
         <v>44826</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4536,7 +4536,7 @@
         <v>44911</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4598,7 +4598,7 @@
         <v>44951</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4655,7 +4655,7 @@
         <v>44966</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4717,7 +4717,7 @@
         <v>44972</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4774,7 +4774,7 @@
         <v>44972</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4831,7 +4831,7 @@
         <v>44972</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4888,7 +4888,7 @@
         <v>44972</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4945,7 +4945,7 @@
         <v>44972</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5002,7 +5002,7 @@
         <v>44972</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
         <v>44972</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5116,7 +5116,7 @@
         <v>44988</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5178,7 +5178,7 @@
         <v>45041</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5235,7 +5235,7 @@
         <v>45098</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5297,7 +5297,7 @@
         <v>45146</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>

--- a/Översikt MUNKFORS.xlsx
+++ b/Översikt MUNKFORS.xlsx
@@ -572,7 +572,7 @@
         <v>43426</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -634,7 +634,7 @@
         <v>43446</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -691,7 +691,7 @@
         <v>43468</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>43472</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -805,7 +805,7 @@
         <v>43472</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -862,7 +862,7 @@
         <v>43573</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -924,7 +924,7 @@
         <v>43614</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -986,7 +986,7 @@
         <v>43640</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1048,7 +1048,7 @@
         <v>43640</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1110,7 +1110,7 @@
         <v>43656</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1172,7 +1172,7 @@
         <v>43662</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1234,7 +1234,7 @@
         <v>43682</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1296,7 +1296,7 @@
         <v>43726</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1353,7 +1353,7 @@
         <v>43745</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1410,7 +1410,7 @@
         <v>43780</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1472,7 +1472,7 @@
         <v>43780</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1534,7 +1534,7 @@
         <v>43783</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1591,7 +1591,7 @@
         <v>43787</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1648,7 +1648,7 @@
         <v>43795</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1705,7 +1705,7 @@
         <v>43797</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1767,7 +1767,7 @@
         <v>43802</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1829,7 +1829,7 @@
         <v>43817</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1886,7 +1886,7 @@
         <v>43833</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1948,7 +1948,7 @@
         <v>43837</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2010,7 +2010,7 @@
         <v>43842</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2072,7 +2072,7 @@
         <v>43879</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2129,7 +2129,7 @@
         <v>43888</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2186,7 +2186,7 @@
         <v>43913</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2243,7 +2243,7 @@
         <v>43921</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2305,7 +2305,7 @@
         <v>43941</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2367,7 +2367,7 @@
         <v>44000</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2424,7 +2424,7 @@
         <v>44047</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2486,7 +2486,7 @@
         <v>44061</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         <v>44061</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2610,7 +2610,7 @@
         <v>44077</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2672,7 +2672,7 @@
         <v>44077</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2734,7 +2734,7 @@
         <v>44101</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2791,7 +2791,7 @@
         <v>44101</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2853,7 +2853,7 @@
         <v>44105</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2910,7 +2910,7 @@
         <v>44112</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2967,7 +2967,7 @@
         <v>44124</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3024,7 +3024,7 @@
         <v>44148</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3081,7 +3081,7 @@
         <v>44161</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3138,7 +3138,7 @@
         <v>44217</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3200,7 +3200,7 @@
         <v>44229</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3257,7 +3257,7 @@
         <v>44238</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3314,7 +3314,7 @@
         <v>44258</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3371,7 +3371,7 @@
         <v>44258</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3428,7 +3428,7 @@
         <v>44326</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3485,7 +3485,7 @@
         <v>44382</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         <v>44411</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3604,7 +3604,7 @@
         <v>44411</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3661,7 +3661,7 @@
         <v>44441</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3718,7 +3718,7 @@
         <v>44531</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3775,7 +3775,7 @@
         <v>44531</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3837,7 +3837,7 @@
         <v>44566</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3899,7 +3899,7 @@
         <v>44648</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3956,7 +3956,7 @@
         <v>44741</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4018,7 +4018,7 @@
         <v>44747</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4075,7 +4075,7 @@
         <v>44748</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4132,7 +4132,7 @@
         <v>44763</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4189,7 +4189,7 @@
         <v>44763</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4246,7 +4246,7 @@
         <v>44782</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4303,7 +4303,7 @@
         <v>44783</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4360,7 +4360,7 @@
         <v>44790</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4417,7 +4417,7 @@
         <v>44815</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4474,7 +4474,7 @@
         <v>44826</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4536,7 +4536,7 @@
         <v>44911</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4598,7 +4598,7 @@
         <v>44951</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4655,7 +4655,7 @@
         <v>44966</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4717,7 +4717,7 @@
         <v>44972</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4774,7 +4774,7 @@
         <v>44972</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4831,7 +4831,7 @@
         <v>44972</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4888,7 +4888,7 @@
         <v>44972</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4945,7 +4945,7 @@
         <v>44972</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5002,7 +5002,7 @@
         <v>44972</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
         <v>44972</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5116,7 +5116,7 @@
         <v>44988</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5178,7 +5178,7 @@
         <v>45041</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5235,7 +5235,7 @@
         <v>45098</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5297,7 +5297,7 @@
         <v>45146</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>

--- a/Översikt MUNKFORS.xlsx
+++ b/Översikt MUNKFORS.xlsx
@@ -572,7 +572,7 @@
         <v>43426</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -634,7 +634,7 @@
         <v>43446</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -691,7 +691,7 @@
         <v>43468</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>43472</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -805,7 +805,7 @@
         <v>43472</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -862,7 +862,7 @@
         <v>43573</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -924,7 +924,7 @@
         <v>43614</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -986,7 +986,7 @@
         <v>43640</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1048,7 +1048,7 @@
         <v>43640</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1110,7 +1110,7 @@
         <v>43656</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1172,7 +1172,7 @@
         <v>43662</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1234,7 +1234,7 @@
         <v>43682</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1296,7 +1296,7 @@
         <v>43726</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1353,7 +1353,7 @@
         <v>43745</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1410,7 +1410,7 @@
         <v>43780</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1472,7 +1472,7 @@
         <v>43780</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1534,7 +1534,7 @@
         <v>43783</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1591,7 +1591,7 @@
         <v>43787</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1648,7 +1648,7 @@
         <v>43795</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1705,7 +1705,7 @@
         <v>43797</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1767,7 +1767,7 @@
         <v>43802</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1829,7 +1829,7 @@
         <v>43817</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1886,7 +1886,7 @@
         <v>43833</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1948,7 +1948,7 @@
         <v>43837</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2010,7 +2010,7 @@
         <v>43842</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2072,7 +2072,7 @@
         <v>43879</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2129,7 +2129,7 @@
         <v>43888</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2186,7 +2186,7 @@
         <v>43913</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2243,7 +2243,7 @@
         <v>43921</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2305,7 +2305,7 @@
         <v>43941</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2367,7 +2367,7 @@
         <v>44000</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2424,7 +2424,7 @@
         <v>44047</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2486,7 +2486,7 @@
         <v>44061</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         <v>44061</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2610,7 +2610,7 @@
         <v>44077</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2672,7 +2672,7 @@
         <v>44077</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2734,7 +2734,7 @@
         <v>44101</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2791,7 +2791,7 @@
         <v>44101</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2853,7 +2853,7 @@
         <v>44105</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2910,7 +2910,7 @@
         <v>44112</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2967,7 +2967,7 @@
         <v>44124</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3024,7 +3024,7 @@
         <v>44148</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3081,7 +3081,7 @@
         <v>44161</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3138,7 +3138,7 @@
         <v>44217</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3200,7 +3200,7 @@
         <v>44229</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3257,7 +3257,7 @@
         <v>44238</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3314,7 +3314,7 @@
         <v>44258</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3371,7 +3371,7 @@
         <v>44258</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3428,7 +3428,7 @@
         <v>44326</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3485,7 +3485,7 @@
         <v>44382</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         <v>44411</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3604,7 +3604,7 @@
         <v>44411</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3661,7 +3661,7 @@
         <v>44441</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3718,7 +3718,7 @@
         <v>44531</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3775,7 +3775,7 @@
         <v>44531</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3837,7 +3837,7 @@
         <v>44566</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3899,7 +3899,7 @@
         <v>44648</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3956,7 +3956,7 @@
         <v>44741</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4018,7 +4018,7 @@
         <v>44747</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4075,7 +4075,7 @@
         <v>44748</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4132,7 +4132,7 @@
         <v>44763</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4189,7 +4189,7 @@
         <v>44763</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4246,7 +4246,7 @@
         <v>44782</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4303,7 +4303,7 @@
         <v>44783</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4360,7 +4360,7 @@
         <v>44790</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4417,7 +4417,7 @@
         <v>44815</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4474,7 +4474,7 @@
         <v>44826</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4536,7 +4536,7 @@
         <v>44911</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4598,7 +4598,7 @@
         <v>44951</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4655,7 +4655,7 @@
         <v>44966</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4717,7 +4717,7 @@
         <v>44972</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4774,7 +4774,7 @@
         <v>44972</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4831,7 +4831,7 @@
         <v>44972</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4888,7 +4888,7 @@
         <v>44972</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4945,7 +4945,7 @@
         <v>44972</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5002,7 +5002,7 @@
         <v>44972</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
         <v>44972</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5116,7 +5116,7 @@
         <v>44988</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5178,7 +5178,7 @@
         <v>45041</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5235,7 +5235,7 @@
         <v>45098</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5297,7 +5297,7 @@
         <v>45146</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>

--- a/Översikt MUNKFORS.xlsx
+++ b/Översikt MUNKFORS.xlsx
@@ -572,7 +572,7 @@
         <v>43426</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -634,7 +634,7 @@
         <v>43446</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -691,7 +691,7 @@
         <v>43468</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>43472</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -805,7 +805,7 @@
         <v>43472</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -862,7 +862,7 @@
         <v>43573</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -924,7 +924,7 @@
         <v>43614</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -986,7 +986,7 @@
         <v>43640</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1048,7 +1048,7 @@
         <v>43640</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1110,7 +1110,7 @@
         <v>43656</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1172,7 +1172,7 @@
         <v>43662</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1234,7 +1234,7 @@
         <v>43682</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1296,7 +1296,7 @@
         <v>43726</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1353,7 +1353,7 @@
         <v>43745</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1410,7 +1410,7 @@
         <v>43780</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1472,7 +1472,7 @@
         <v>43780</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1534,7 +1534,7 @@
         <v>43783</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1591,7 +1591,7 @@
         <v>43787</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1648,7 +1648,7 @@
         <v>43795</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1705,7 +1705,7 @@
         <v>43797</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1767,7 +1767,7 @@
         <v>43802</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1829,7 +1829,7 @@
         <v>43817</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1886,7 +1886,7 @@
         <v>43833</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1948,7 +1948,7 @@
         <v>43837</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2010,7 +2010,7 @@
         <v>43842</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2072,7 +2072,7 @@
         <v>43879</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2129,7 +2129,7 @@
         <v>43888</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2186,7 +2186,7 @@
         <v>43913</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2243,7 +2243,7 @@
         <v>43921</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2305,7 +2305,7 @@
         <v>43941</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2367,7 +2367,7 @@
         <v>44000</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2424,7 +2424,7 @@
         <v>44047</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2486,7 +2486,7 @@
         <v>44061</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         <v>44061</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2610,7 +2610,7 @@
         <v>44077</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2672,7 +2672,7 @@
         <v>44077</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2734,7 +2734,7 @@
         <v>44101</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2791,7 +2791,7 @@
         <v>44101</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2853,7 +2853,7 @@
         <v>44105</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2910,7 +2910,7 @@
         <v>44112</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2967,7 +2967,7 @@
         <v>44124</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3024,7 +3024,7 @@
         <v>44148</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3081,7 +3081,7 @@
         <v>44161</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3138,7 +3138,7 @@
         <v>44217</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3200,7 +3200,7 @@
         <v>44229</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3257,7 +3257,7 @@
         <v>44238</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3314,7 +3314,7 @@
         <v>44258</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3371,7 +3371,7 @@
         <v>44258</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3428,7 +3428,7 @@
         <v>44326</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3485,7 +3485,7 @@
         <v>44382</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         <v>44411</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3604,7 +3604,7 @@
         <v>44411</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3661,7 +3661,7 @@
         <v>44441</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3718,7 +3718,7 @@
         <v>44531</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3775,7 +3775,7 @@
         <v>44531</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3837,7 +3837,7 @@
         <v>44566</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3899,7 +3899,7 @@
         <v>44648</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3956,7 +3956,7 @@
         <v>44741</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4018,7 +4018,7 @@
         <v>44747</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4075,7 +4075,7 @@
         <v>44748</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4132,7 +4132,7 @@
         <v>44763</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4189,7 +4189,7 @@
         <v>44763</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4246,7 +4246,7 @@
         <v>44782</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4303,7 +4303,7 @@
         <v>44783</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4360,7 +4360,7 @@
         <v>44790</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4417,7 +4417,7 @@
         <v>44815</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4474,7 +4474,7 @@
         <v>44826</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4536,7 +4536,7 @@
         <v>44911</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4598,7 +4598,7 @@
         <v>44951</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4655,7 +4655,7 @@
         <v>44966</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4717,7 +4717,7 @@
         <v>44972</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4774,7 +4774,7 @@
         <v>44972</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4831,7 +4831,7 @@
         <v>44972</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4888,7 +4888,7 @@
         <v>44972</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4945,7 +4945,7 @@
         <v>44972</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5002,7 +5002,7 @@
         <v>44972</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
         <v>44972</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5116,7 +5116,7 @@
         <v>44988</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5178,7 +5178,7 @@
         <v>45041</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5235,7 +5235,7 @@
         <v>45098</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5297,7 +5297,7 @@
         <v>45146</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>

--- a/Översikt MUNKFORS.xlsx
+++ b/Översikt MUNKFORS.xlsx
@@ -572,7 +572,7 @@
         <v>43426</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -634,7 +634,7 @@
         <v>43446</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -691,7 +691,7 @@
         <v>43468</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>43472</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -805,7 +805,7 @@
         <v>43472</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -862,7 +862,7 @@
         <v>43573</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -924,7 +924,7 @@
         <v>43614</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -986,7 +986,7 @@
         <v>43640</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1048,7 +1048,7 @@
         <v>43640</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1110,7 +1110,7 @@
         <v>43656</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1172,7 +1172,7 @@
         <v>43662</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1234,7 +1234,7 @@
         <v>43682</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1296,7 +1296,7 @@
         <v>43726</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1353,7 +1353,7 @@
         <v>43745</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1410,7 +1410,7 @@
         <v>43780</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1472,7 +1472,7 @@
         <v>43780</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1534,7 +1534,7 @@
         <v>43783</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1591,7 +1591,7 @@
         <v>43787</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1648,7 +1648,7 @@
         <v>43795</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1705,7 +1705,7 @@
         <v>43797</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1767,7 +1767,7 @@
         <v>43802</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1829,7 +1829,7 @@
         <v>43817</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1886,7 +1886,7 @@
         <v>43833</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1948,7 +1948,7 @@
         <v>43837</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2010,7 +2010,7 @@
         <v>43842</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2072,7 +2072,7 @@
         <v>43879</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2129,7 +2129,7 @@
         <v>43888</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2186,7 +2186,7 @@
         <v>43913</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2243,7 +2243,7 @@
         <v>43921</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2305,7 +2305,7 @@
         <v>43941</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2367,7 +2367,7 @@
         <v>44000</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2424,7 +2424,7 @@
         <v>44047</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2486,7 +2486,7 @@
         <v>44061</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         <v>44061</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2610,7 +2610,7 @@
         <v>44077</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2672,7 +2672,7 @@
         <v>44077</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2734,7 +2734,7 @@
         <v>44101</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2791,7 +2791,7 @@
         <v>44101</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2853,7 +2853,7 @@
         <v>44105</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2910,7 +2910,7 @@
         <v>44112</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2967,7 +2967,7 @@
         <v>44124</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3024,7 +3024,7 @@
         <v>44148</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3081,7 +3081,7 @@
         <v>44161</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3138,7 +3138,7 @@
         <v>44217</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3200,7 +3200,7 @@
         <v>44229</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3257,7 +3257,7 @@
         <v>44238</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3314,7 +3314,7 @@
         <v>44258</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3371,7 +3371,7 @@
         <v>44258</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3428,7 +3428,7 @@
         <v>44326</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3485,7 +3485,7 @@
         <v>44382</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         <v>44411</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3604,7 +3604,7 @@
         <v>44411</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3661,7 +3661,7 @@
         <v>44441</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3718,7 +3718,7 @@
         <v>44531</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3775,7 +3775,7 @@
         <v>44531</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3837,7 +3837,7 @@
         <v>44566</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3899,7 +3899,7 @@
         <v>44648</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3956,7 +3956,7 @@
         <v>44741</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4018,7 +4018,7 @@
         <v>44747</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4075,7 +4075,7 @@
         <v>44748</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4132,7 +4132,7 @@
         <v>44763</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4189,7 +4189,7 @@
         <v>44763</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4246,7 +4246,7 @@
         <v>44782</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4303,7 +4303,7 @@
         <v>44783</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4360,7 +4360,7 @@
         <v>44790</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4417,7 +4417,7 @@
         <v>44815</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4474,7 +4474,7 @@
         <v>44826</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4536,7 +4536,7 @@
         <v>44911</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4598,7 +4598,7 @@
         <v>44951</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4655,7 +4655,7 @@
         <v>44966</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4717,7 +4717,7 @@
         <v>44972</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4774,7 +4774,7 @@
         <v>44972</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4831,7 +4831,7 @@
         <v>44972</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4888,7 +4888,7 @@
         <v>44972</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4945,7 +4945,7 @@
         <v>44972</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5002,7 +5002,7 @@
         <v>44972</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
         <v>44972</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5116,7 +5116,7 @@
         <v>44988</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5178,7 +5178,7 @@
         <v>45041</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5235,7 +5235,7 @@
         <v>45098</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5297,7 +5297,7 @@
         <v>45146</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>

--- a/Översikt MUNKFORS.xlsx
+++ b/Översikt MUNKFORS.xlsx
@@ -572,7 +572,7 @@
         <v>43426</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -634,7 +634,7 @@
         <v>43446</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -691,7 +691,7 @@
         <v>43468</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>43472</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -805,7 +805,7 @@
         <v>43472</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -862,7 +862,7 @@
         <v>43573</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -924,7 +924,7 @@
         <v>43614</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -986,7 +986,7 @@
         <v>43640</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1048,7 +1048,7 @@
         <v>43640</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1110,7 +1110,7 @@
         <v>43656</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1172,7 +1172,7 @@
         <v>43662</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1234,7 +1234,7 @@
         <v>43682</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1296,7 +1296,7 @@
         <v>43726</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1353,7 +1353,7 @@
         <v>43745</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1410,7 +1410,7 @@
         <v>43780</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1472,7 +1472,7 @@
         <v>43780</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1534,7 +1534,7 @@
         <v>43783</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1591,7 +1591,7 @@
         <v>43787</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1648,7 +1648,7 @@
         <v>43795</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1705,7 +1705,7 @@
         <v>43797</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1767,7 +1767,7 @@
         <v>43802</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1829,7 +1829,7 @@
         <v>43817</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1886,7 +1886,7 @@
         <v>43833</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1948,7 +1948,7 @@
         <v>43837</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2010,7 +2010,7 @@
         <v>43842</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2072,7 +2072,7 @@
         <v>43879</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2129,7 +2129,7 @@
         <v>43888</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2186,7 +2186,7 @@
         <v>43913</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2243,7 +2243,7 @@
         <v>43921</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2305,7 +2305,7 @@
         <v>43941</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2367,7 +2367,7 @@
         <v>44000</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2424,7 +2424,7 @@
         <v>44047</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2486,7 +2486,7 @@
         <v>44061</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         <v>44061</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2610,7 +2610,7 @@
         <v>44077</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2672,7 +2672,7 @@
         <v>44077</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2734,7 +2734,7 @@
         <v>44101</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2791,7 +2791,7 @@
         <v>44101</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2853,7 +2853,7 @@
         <v>44105</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2910,7 +2910,7 @@
         <v>44112</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2967,7 +2967,7 @@
         <v>44124</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3024,7 +3024,7 @@
         <v>44148</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3081,7 +3081,7 @@
         <v>44161</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3138,7 +3138,7 @@
         <v>44217</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3200,7 +3200,7 @@
         <v>44229</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3257,7 +3257,7 @@
         <v>44238</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3314,7 +3314,7 @@
         <v>44258</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3371,7 +3371,7 @@
         <v>44258</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3428,7 +3428,7 @@
         <v>44326</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3485,7 +3485,7 @@
         <v>44382</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         <v>44411</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3604,7 +3604,7 @@
         <v>44411</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3661,7 +3661,7 @@
         <v>44441</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3718,7 +3718,7 @@
         <v>44531</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3775,7 +3775,7 @@
         <v>44531</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3837,7 +3837,7 @@
         <v>44566</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3899,7 +3899,7 @@
         <v>44648</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3956,7 +3956,7 @@
         <v>44741</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4018,7 +4018,7 @@
         <v>44747</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4075,7 +4075,7 @@
         <v>44748</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4132,7 +4132,7 @@
         <v>44763</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4189,7 +4189,7 @@
         <v>44763</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4246,7 +4246,7 @@
         <v>44782</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4303,7 +4303,7 @@
         <v>44783</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4360,7 +4360,7 @@
         <v>44790</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4417,7 +4417,7 @@
         <v>44815</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4474,7 +4474,7 @@
         <v>44826</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4536,7 +4536,7 @@
         <v>44911</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4598,7 +4598,7 @@
         <v>44951</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4655,7 +4655,7 @@
         <v>44966</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4717,7 +4717,7 @@
         <v>44972</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4774,7 +4774,7 @@
         <v>44972</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4831,7 +4831,7 @@
         <v>44972</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4888,7 +4888,7 @@
         <v>44972</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4945,7 +4945,7 @@
         <v>44972</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5002,7 +5002,7 @@
         <v>44972</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
         <v>44972</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5116,7 +5116,7 @@
         <v>44988</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5178,7 +5178,7 @@
         <v>45041</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5235,7 +5235,7 @@
         <v>45098</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5297,7 +5297,7 @@
         <v>45146</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>

--- a/Översikt MUNKFORS.xlsx
+++ b/Översikt MUNKFORS.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y82"/>
+  <dimension ref="A1:Y84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>43426</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -634,7 +634,7 @@
         <v>43446</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -691,7 +691,7 @@
         <v>43468</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>43472</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -805,7 +805,7 @@
         <v>43472</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -862,7 +862,7 @@
         <v>43573</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -924,7 +924,7 @@
         <v>43614</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -986,7 +986,7 @@
         <v>43640</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1048,7 +1048,7 @@
         <v>43640</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1110,7 +1110,7 @@
         <v>43656</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1172,7 +1172,7 @@
         <v>43662</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1234,7 +1234,7 @@
         <v>43682</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1296,7 +1296,7 @@
         <v>43726</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1353,7 +1353,7 @@
         <v>43745</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1410,7 +1410,7 @@
         <v>43780</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1472,7 +1472,7 @@
         <v>43780</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1534,7 +1534,7 @@
         <v>43783</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1591,7 +1591,7 @@
         <v>43787</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1648,7 +1648,7 @@
         <v>43795</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1705,7 +1705,7 @@
         <v>43797</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1767,7 +1767,7 @@
         <v>43802</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1829,7 +1829,7 @@
         <v>43817</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1886,7 +1886,7 @@
         <v>43833</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1948,7 +1948,7 @@
         <v>43837</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2010,7 +2010,7 @@
         <v>43842</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2072,7 +2072,7 @@
         <v>43879</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2129,7 +2129,7 @@
         <v>43888</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2186,7 +2186,7 @@
         <v>43913</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2243,7 +2243,7 @@
         <v>43921</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2305,7 +2305,7 @@
         <v>43941</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2367,7 +2367,7 @@
         <v>44000</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2424,7 +2424,7 @@
         <v>44047</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2486,7 +2486,7 @@
         <v>44061</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         <v>44061</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2610,7 +2610,7 @@
         <v>44077</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2672,7 +2672,7 @@
         <v>44077</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2734,7 +2734,7 @@
         <v>44101</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2791,7 +2791,7 @@
         <v>44101</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2853,7 +2853,7 @@
         <v>44105</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2910,7 +2910,7 @@
         <v>44112</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2967,7 +2967,7 @@
         <v>44124</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3024,7 +3024,7 @@
         <v>44148</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3081,7 +3081,7 @@
         <v>44161</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3138,7 +3138,7 @@
         <v>44217</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3200,7 +3200,7 @@
         <v>44229</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3257,7 +3257,7 @@
         <v>44238</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3314,7 +3314,7 @@
         <v>44258</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3371,7 +3371,7 @@
         <v>44258</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3428,7 +3428,7 @@
         <v>44326</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3485,7 +3485,7 @@
         <v>44382</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         <v>44411</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3604,7 +3604,7 @@
         <v>44411</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3661,7 +3661,7 @@
         <v>44441</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3718,7 +3718,7 @@
         <v>44531</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3775,7 +3775,7 @@
         <v>44531</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3837,7 +3837,7 @@
         <v>44566</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3899,7 +3899,7 @@
         <v>44648</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3956,7 +3956,7 @@
         <v>44741</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4018,7 +4018,7 @@
         <v>44747</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4075,7 +4075,7 @@
         <v>44748</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4132,7 +4132,7 @@
         <v>44763</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4189,7 +4189,7 @@
         <v>44763</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4246,7 +4246,7 @@
         <v>44782</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4303,7 +4303,7 @@
         <v>44783</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4360,7 +4360,7 @@
         <v>44790</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4417,7 +4417,7 @@
         <v>44815</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4474,7 +4474,7 @@
         <v>44826</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4536,7 +4536,7 @@
         <v>44911</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4598,7 +4598,7 @@
         <v>44951</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4655,7 +4655,7 @@
         <v>44966</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4717,7 +4717,7 @@
         <v>44972</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4774,7 +4774,7 @@
         <v>44972</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4831,7 +4831,7 @@
         <v>44972</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4888,7 +4888,7 @@
         <v>44972</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4945,7 +4945,7 @@
         <v>44972</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5002,7 +5002,7 @@
         <v>44972</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
         <v>44972</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5116,7 +5116,7 @@
         <v>44988</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5178,7 +5178,7 @@
         <v>45041</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5235,7 +5235,7 @@
         <v>45098</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5287,7 +5287,7 @@
       </c>
       <c r="R81" s="2" t="inlineStr"/>
     </row>
-    <row r="82">
+    <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
           <t>A 35489-2023</t>
@@ -5297,7 +5297,7 @@
         <v>45146</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5343,6 +5343,130 @@
         <v>0</v>
       </c>
       <c r="R82" s="2" t="inlineStr"/>
+    </row>
+    <row r="83" ht="15" customHeight="1">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>A 43549-2023</t>
+        </is>
+      </c>
+      <c r="B83" s="1" t="n">
+        <v>45184</v>
+      </c>
+      <c r="C83" s="1" t="n">
+        <v>45186</v>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>MUNKFORS</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
+      <c r="G83" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
+      <c r="K83" t="n">
+        <v>0</v>
+      </c>
+      <c r="L83" t="n">
+        <v>0</v>
+      </c>
+      <c r="M83" t="n">
+        <v>0</v>
+      </c>
+      <c r="N83" t="n">
+        <v>0</v>
+      </c>
+      <c r="O83" t="n">
+        <v>0</v>
+      </c>
+      <c r="P83" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>0</v>
+      </c>
+      <c r="R83" s="2" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>A 43554-2023</t>
+        </is>
+      </c>
+      <c r="B84" s="1" t="n">
+        <v>45184</v>
+      </c>
+      <c r="C84" s="1" t="n">
+        <v>45186</v>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>MUNKFORS</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
+      <c r="G84" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0</v>
+      </c>
+      <c r="L84" t="n">
+        <v>0</v>
+      </c>
+      <c r="M84" t="n">
+        <v>0</v>
+      </c>
+      <c r="N84" t="n">
+        <v>0</v>
+      </c>
+      <c r="O84" t="n">
+        <v>0</v>
+      </c>
+      <c r="P84" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>0</v>
+      </c>
+      <c r="R84" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt MUNKFORS.xlsx
+++ b/Översikt MUNKFORS.xlsx
@@ -572,7 +572,7 @@
         <v>43426</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -634,7 +634,7 @@
         <v>43446</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -691,7 +691,7 @@
         <v>43468</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>43472</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -805,7 +805,7 @@
         <v>43472</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -862,7 +862,7 @@
         <v>43573</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -924,7 +924,7 @@
         <v>43614</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -986,7 +986,7 @@
         <v>43640</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1048,7 +1048,7 @@
         <v>43640</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1110,7 +1110,7 @@
         <v>43656</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1172,7 +1172,7 @@
         <v>43662</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1234,7 +1234,7 @@
         <v>43682</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1296,7 +1296,7 @@
         <v>43726</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1353,7 +1353,7 @@
         <v>43745</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1410,7 +1410,7 @@
         <v>43780</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1472,7 +1472,7 @@
         <v>43780</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1534,7 +1534,7 @@
         <v>43783</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1591,7 +1591,7 @@
         <v>43787</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1648,7 +1648,7 @@
         <v>43795</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1705,7 +1705,7 @@
         <v>43797</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1767,7 +1767,7 @@
         <v>43802</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1829,7 +1829,7 @@
         <v>43817</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1886,7 +1886,7 @@
         <v>43833</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1948,7 +1948,7 @@
         <v>43837</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2010,7 +2010,7 @@
         <v>43842</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2072,7 +2072,7 @@
         <v>43879</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2129,7 +2129,7 @@
         <v>43888</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2186,7 +2186,7 @@
         <v>43913</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2243,7 +2243,7 @@
         <v>43921</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2305,7 +2305,7 @@
         <v>43941</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2367,7 +2367,7 @@
         <v>44000</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2424,7 +2424,7 @@
         <v>44047</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2486,7 +2486,7 @@
         <v>44061</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         <v>44061</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2610,7 +2610,7 @@
         <v>44077</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2672,7 +2672,7 @@
         <v>44077</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2734,7 +2734,7 @@
         <v>44101</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2791,7 +2791,7 @@
         <v>44101</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2853,7 +2853,7 @@
         <v>44105</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2910,7 +2910,7 @@
         <v>44112</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2967,7 +2967,7 @@
         <v>44124</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3024,7 +3024,7 @@
         <v>44148</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3081,7 +3081,7 @@
         <v>44161</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3138,7 +3138,7 @@
         <v>44217</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3200,7 +3200,7 @@
         <v>44229</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3257,7 +3257,7 @@
         <v>44238</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3314,7 +3314,7 @@
         <v>44258</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3371,7 +3371,7 @@
         <v>44258</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3428,7 +3428,7 @@
         <v>44326</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3485,7 +3485,7 @@
         <v>44382</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         <v>44411</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3604,7 +3604,7 @@
         <v>44411</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3661,7 +3661,7 @@
         <v>44441</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3718,7 +3718,7 @@
         <v>44531</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3775,7 +3775,7 @@
         <v>44531</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3837,7 +3837,7 @@
         <v>44566</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3899,7 +3899,7 @@
         <v>44648</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3956,7 +3956,7 @@
         <v>44741</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4018,7 +4018,7 @@
         <v>44747</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4075,7 +4075,7 @@
         <v>44748</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4132,7 +4132,7 @@
         <v>44763</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4189,7 +4189,7 @@
         <v>44763</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4246,7 +4246,7 @@
         <v>44782</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4303,7 +4303,7 @@
         <v>44783</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4360,7 +4360,7 @@
         <v>44790</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4417,7 +4417,7 @@
         <v>44815</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4474,7 +4474,7 @@
         <v>44826</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4536,7 +4536,7 @@
         <v>44911</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4598,7 +4598,7 @@
         <v>44951</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4655,7 +4655,7 @@
         <v>44966</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4717,7 +4717,7 @@
         <v>44972</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4774,7 +4774,7 @@
         <v>44972</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4831,7 +4831,7 @@
         <v>44972</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4888,7 +4888,7 @@
         <v>44972</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4945,7 +4945,7 @@
         <v>44972</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5002,7 +5002,7 @@
         <v>44972</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
         <v>44972</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5116,7 +5116,7 @@
         <v>44988</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5178,7 +5178,7 @@
         <v>45041</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5235,7 +5235,7 @@
         <v>45098</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5297,7 +5297,7 @@
         <v>45146</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5354,7 +5354,7 @@
         <v>45184</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5416,7 +5416,7 @@
         <v>45184</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>

--- a/Översikt MUNKFORS.xlsx
+++ b/Översikt MUNKFORS.xlsx
@@ -572,7 +572,7 @@
         <v>43426</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -634,7 +634,7 @@
         <v>43446</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -691,7 +691,7 @@
         <v>43468</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>43472</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -805,7 +805,7 @@
         <v>43472</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -862,7 +862,7 @@
         <v>43573</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -924,7 +924,7 @@
         <v>43614</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -986,7 +986,7 @@
         <v>43640</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1048,7 +1048,7 @@
         <v>43640</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1110,7 +1110,7 @@
         <v>43656</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1172,7 +1172,7 @@
         <v>43662</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1234,7 +1234,7 @@
         <v>43682</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1296,7 +1296,7 @@
         <v>43726</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1353,7 +1353,7 @@
         <v>43745</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1410,7 +1410,7 @@
         <v>43780</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1472,7 +1472,7 @@
         <v>43780</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1534,7 +1534,7 @@
         <v>43783</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1591,7 +1591,7 @@
         <v>43787</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1648,7 +1648,7 @@
         <v>43795</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1705,7 +1705,7 @@
         <v>43797</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1767,7 +1767,7 @@
         <v>43802</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1829,7 +1829,7 @@
         <v>43817</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1886,7 +1886,7 @@
         <v>43833</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1948,7 +1948,7 @@
         <v>43837</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2010,7 +2010,7 @@
         <v>43842</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2072,7 +2072,7 @@
         <v>43879</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2129,7 +2129,7 @@
         <v>43888</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2186,7 +2186,7 @@
         <v>43913</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2243,7 +2243,7 @@
         <v>43921</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2305,7 +2305,7 @@
         <v>43941</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2367,7 +2367,7 @@
         <v>44000</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2424,7 +2424,7 @@
         <v>44047</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2486,7 +2486,7 @@
         <v>44061</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         <v>44061</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2610,7 +2610,7 @@
         <v>44077</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2672,7 +2672,7 @@
         <v>44077</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2734,7 +2734,7 @@
         <v>44101</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2791,7 +2791,7 @@
         <v>44101</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2853,7 +2853,7 @@
         <v>44105</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2910,7 +2910,7 @@
         <v>44112</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2967,7 +2967,7 @@
         <v>44124</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3024,7 +3024,7 @@
         <v>44148</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3081,7 +3081,7 @@
         <v>44161</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3138,7 +3138,7 @@
         <v>44217</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3200,7 +3200,7 @@
         <v>44229</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3257,7 +3257,7 @@
         <v>44238</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3314,7 +3314,7 @@
         <v>44258</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3371,7 +3371,7 @@
         <v>44258</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3428,7 +3428,7 @@
         <v>44326</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3485,7 +3485,7 @@
         <v>44382</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         <v>44411</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3604,7 +3604,7 @@
         <v>44411</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3661,7 +3661,7 @@
         <v>44441</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3718,7 +3718,7 @@
         <v>44531</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3775,7 +3775,7 @@
         <v>44531</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3837,7 +3837,7 @@
         <v>44566</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3899,7 +3899,7 @@
         <v>44648</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3956,7 +3956,7 @@
         <v>44741</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4018,7 +4018,7 @@
         <v>44747</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4075,7 +4075,7 @@
         <v>44748</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4132,7 +4132,7 @@
         <v>44763</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4189,7 +4189,7 @@
         <v>44763</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4246,7 +4246,7 @@
         <v>44782</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4303,7 +4303,7 @@
         <v>44783</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4360,7 +4360,7 @@
         <v>44790</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4417,7 +4417,7 @@
         <v>44815</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4474,7 +4474,7 @@
         <v>44826</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4536,7 +4536,7 @@
         <v>44911</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4598,7 +4598,7 @@
         <v>44951</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4655,7 +4655,7 @@
         <v>44966</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4717,7 +4717,7 @@
         <v>44972</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4774,7 +4774,7 @@
         <v>44972</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4831,7 +4831,7 @@
         <v>44972</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4888,7 +4888,7 @@
         <v>44972</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4945,7 +4945,7 @@
         <v>44972</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5002,7 +5002,7 @@
         <v>44972</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
         <v>44972</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5116,7 +5116,7 @@
         <v>44988</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5178,7 +5178,7 @@
         <v>45041</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5235,7 +5235,7 @@
         <v>45098</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5297,7 +5297,7 @@
         <v>45146</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5354,7 +5354,7 @@
         <v>45184</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5416,7 +5416,7 @@
         <v>45184</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>

--- a/Översikt MUNKFORS.xlsx
+++ b/Översikt MUNKFORS.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y84"/>
+  <dimension ref="A1:Y85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -565,14 +565,14 @@
     <row r="2" ht="15" customHeight="1">
       <c r="A2" t="inlineStr">
         <is>
-          <t>A 62868-2018</t>
+          <t>A 44111-2023</t>
         </is>
       </c>
       <c r="B2" s="1" t="n">
-        <v>43426</v>
+        <v>45188</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -584,13 +584,8 @@
           <t>MUNKFORS</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G2" t="n">
-        <v>57.8</v>
+        <v>7</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -599,7 +594,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -614,27 +609,55 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" s="2" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="R2" s="2" t="inlineStr">
+        <is>
+          <t>Bågsäv</t>
+        </is>
+      </c>
+      <c r="S2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKFORS/artfynd/A 44111-2023.xlsx", "A 44111-2023")</f>
+        <v/>
+      </c>
+      <c r="T2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKFORS/kartor/A 44111-2023.png", "A 44111-2023")</f>
+        <v/>
+      </c>
+      <c r="V2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKFORS/klagomål/A 44111-2023.docx", "A 44111-2023")</f>
+        <v/>
+      </c>
+      <c r="W2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKFORS/klagomålsmail/A 44111-2023.docx", "A 44111-2023")</f>
+        <v/>
+      </c>
+      <c r="X2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKFORS/tillsyn/A 44111-2023.docx", "A 44111-2023")</f>
+        <v/>
+      </c>
+      <c r="Y2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKFORS/tillsynsmail/A 44111-2023.docx", "A 44111-2023")</f>
+        <v/>
+      </c>
     </row>
     <row r="3" ht="15" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
-          <t>A 69527-2018</t>
+          <t>A 62868-2018</t>
         </is>
       </c>
       <c r="B3" s="1" t="n">
-        <v>43446</v>
+        <v>43426</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -646,8 +669,13 @@
           <t>MUNKFORS</t>
         </is>
       </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G3" t="n">
-        <v>1.6</v>
+        <v>57.8</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -684,14 +712,14 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 2523-2019</t>
+          <t>A 69527-2018</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>43468</v>
+        <v>43446</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -704,7 +732,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>5</v>
+        <v>1.6</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -741,14 +769,14 @@
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A 1082-2019</t>
+          <t>A 2523-2019</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>43472</v>
+        <v>43468</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -761,7 +789,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.3</v>
+        <v>5</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -798,14 +826,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 896-2019</t>
+          <t>A 1082-2019</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
         <v>43472</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -818,7 +846,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -855,14 +883,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 20753-2019</t>
+          <t>A 896-2019</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>43573</v>
+        <v>43472</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -874,13 +902,8 @@
           <t>MUNKFORS</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G7" t="n">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -917,14 +940,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 27110-2019</t>
+          <t>A 20753-2019</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>43614</v>
+        <v>43573</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -942,7 +965,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3.8</v>
+        <v>2</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -979,14 +1002,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 30977-2019</t>
+          <t>A 27110-2019</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>43640</v>
+        <v>43614</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1004,7 +1027,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>4.4</v>
+        <v>3.8</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1041,14 +1064,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 32393-2019</t>
+          <t>A 30977-2019</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
         <v>43640</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1066,7 +1089,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>0.2</v>
+        <v>4.4</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1103,14 +1126,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 34344-2019</t>
+          <t>A 32393-2019</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>43656</v>
+        <v>43640</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1128,7 +1151,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1165,14 +1188,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 35248-2019</t>
+          <t>A 34344-2019</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>43662</v>
+        <v>43656</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1186,11 +1209,11 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>7</v>
+        <v>0.4</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1227,14 +1250,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 37832-2019</t>
+          <t>A 35248-2019</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>43682</v>
+        <v>43662</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1248,11 +1271,11 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1289,14 +1312,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 48226-2019</t>
+          <t>A 37832-2019</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>43726</v>
+        <v>43682</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1308,8 +1331,13 @@
           <t>MUNKFORS</t>
         </is>
       </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G14" t="n">
-        <v>4.7</v>
+        <v>6.4</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1346,14 +1374,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 52490-2019</t>
+          <t>A 48226-2019</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>43745</v>
+        <v>43726</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1366,7 +1394,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.8</v>
+        <v>4.7</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1403,14 +1431,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 60443-2019</t>
+          <t>A 52490-2019</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>43780</v>
+        <v>43745</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1422,13 +1450,8 @@
           <t>MUNKFORS</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G16" t="n">
-        <v>3.4</v>
+        <v>1.8</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1465,14 +1488,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 60453-2019</t>
+          <t>A 60443-2019</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
         <v>43780</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1490,7 +1513,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1527,14 +1550,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 61341-2019</t>
+          <t>A 60453-2019</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>43783</v>
+        <v>43780</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1546,8 +1569,13 @@
           <t>MUNKFORS</t>
         </is>
       </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G18" t="n">
-        <v>1.1</v>
+        <v>2.4</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1584,14 +1612,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 61907-2019</t>
+          <t>A 61341-2019</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>43787</v>
+        <v>43783</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1604,7 +1632,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1641,14 +1669,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 63560-2019</t>
+          <t>A 61907-2019</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>43795</v>
+        <v>43787</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1661,7 +1689,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.4</v>
+        <v>0.9</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1698,14 +1726,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 64238-2019</t>
+          <t>A 63560-2019</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>43797</v>
+        <v>43795</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1717,13 +1745,8 @@
           <t>MUNKFORS</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G21" t="n">
-        <v>4.3</v>
+        <v>2.4</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1760,14 +1783,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 65302-2019</t>
+          <t>A 64238-2019</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>43802</v>
+        <v>43797</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1785,7 +1808,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>3.8</v>
+        <v>4.3</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1822,14 +1845,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 68259-2019</t>
+          <t>A 65302-2019</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>43817</v>
+        <v>43802</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1841,8 +1864,13 @@
           <t>MUNKFORS</t>
         </is>
       </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G23" t="n">
-        <v>14.2</v>
+        <v>3.8</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1879,14 +1907,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 170-2020</t>
+          <t>A 68259-2019</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>43833</v>
+        <v>43817</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1898,13 +1926,8 @@
           <t>MUNKFORS</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G24" t="n">
-        <v>1.8</v>
+        <v>14.2</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1941,14 +1964,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 372-2020</t>
+          <t>A 170-2020</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>43837</v>
+        <v>43833</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1966,7 +1989,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>12.6</v>
+        <v>1.8</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2003,14 +2026,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 1284-2020</t>
+          <t>A 372-2020</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>43842</v>
+        <v>43837</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2028,7 +2051,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.2</v>
+        <v>12.6</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2065,14 +2088,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 9136-2020</t>
+          <t>A 1284-2020</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>43879</v>
+        <v>43842</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2084,8 +2107,13 @@
           <t>MUNKFORS</t>
         </is>
       </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G27" t="n">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2122,14 +2150,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 10827-2020</t>
+          <t>A 9136-2020</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>43888</v>
+        <v>43879</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2142,7 +2170,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2179,14 +2207,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 15290-2020</t>
+          <t>A 10827-2020</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>43913</v>
+        <v>43888</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2199,7 +2227,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2236,14 +2264,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 16833-2020</t>
+          <t>A 15290-2020</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>43921</v>
+        <v>43913</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2255,13 +2283,8 @@
           <t>MUNKFORS</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G30" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2298,14 +2321,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 19887-2020</t>
+          <t>A 16833-2020</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>43941</v>
+        <v>43921</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2319,11 +2342,11 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>0.4</v>
+        <v>2.4</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2360,14 +2383,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 28877-2020</t>
+          <t>A 19887-2020</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44000</v>
+        <v>43941</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2379,8 +2402,13 @@
           <t>MUNKFORS</t>
         </is>
       </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G32" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2417,14 +2445,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 35977-2020</t>
+          <t>A 28877-2020</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44047</v>
+        <v>44000</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2436,13 +2464,8 @@
           <t>MUNKFORS</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G33" t="n">
-        <v>1.9</v>
+        <v>0.8</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2479,14 +2502,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 38603-2020</t>
+          <t>A 35977-2020</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44061</v>
+        <v>44047</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2500,11 +2523,11 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>0.3</v>
+        <v>1.9</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2541,14 +2564,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 38693-2020</t>
+          <t>A 38603-2020</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
         <v>44061</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2566,7 +2589,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2603,14 +2626,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 42539-2020</t>
+          <t>A 38693-2020</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44077</v>
+        <v>44061</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2628,7 +2651,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2665,14 +2688,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 42522-2020</t>
+          <t>A 42539-2020</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
         <v>44077</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2690,7 +2713,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>0.3</v>
+        <v>1.5</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2727,14 +2750,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 48114-2020</t>
+          <t>A 42522-2020</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44101</v>
+        <v>44077</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2746,8 +2769,13 @@
           <t>MUNKFORS</t>
         </is>
       </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G38" t="n">
-        <v>0.9</v>
+        <v>0.3</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2784,14 +2812,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 48104-2020</t>
+          <t>A 48114-2020</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
         <v>44101</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2803,13 +2831,8 @@
           <t>MUNKFORS</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G39" t="n">
-        <v>8</v>
+        <v>0.9</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2846,14 +2869,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 49456-2020</t>
+          <t>A 48104-2020</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44105</v>
+        <v>44101</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2865,8 +2888,13 @@
           <t>MUNKFORS</t>
         </is>
       </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G40" t="n">
-        <v>1.3</v>
+        <v>8</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2903,14 +2931,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 51344-2020</t>
+          <t>A 49456-2020</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44112</v>
+        <v>44105</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2923,7 +2951,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2960,14 +2988,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 53806-2020</t>
+          <t>A 51344-2020</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44124</v>
+        <v>44112</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2980,7 +3008,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2.6</v>
+        <v>1.1</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3017,14 +3045,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 59392-2020</t>
+          <t>A 53806-2020</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44148</v>
+        <v>44124</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3037,7 +3065,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.4</v>
+        <v>2.6</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3074,14 +3102,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 62842-2020</t>
+          <t>A 59392-2020</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44161</v>
+        <v>44148</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3094,7 +3122,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2.6</v>
+        <v>1.4</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3131,14 +3159,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 3287-2021</t>
+          <t>A 62842-2020</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44217</v>
+        <v>44161</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3150,13 +3178,8 @@
           <t>MUNKFORS</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G45" t="n">
-        <v>5.2</v>
+        <v>2.6</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3193,14 +3216,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 5428-2021</t>
+          <t>A 3287-2021</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44229</v>
+        <v>44217</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3212,8 +3235,13 @@
           <t>MUNKFORS</t>
         </is>
       </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G46" t="n">
-        <v>2.5</v>
+        <v>5.2</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3250,14 +3278,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 7170-2021</t>
+          <t>A 5428-2021</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44238</v>
+        <v>44229</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3270,7 +3298,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.6</v>
+        <v>2.5</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3307,14 +3335,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 10720-2021</t>
+          <t>A 7170-2021</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44258</v>
+        <v>44238</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3327,7 +3355,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>5.7</v>
+        <v>1.6</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3364,14 +3392,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 10721-2021</t>
+          <t>A 10720-2021</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
         <v>44258</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3384,7 +3412,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>4.1</v>
+        <v>5.7</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3421,14 +3449,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 22459-2021</t>
+          <t>A 10721-2021</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44326</v>
+        <v>44258</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3441,7 +3469,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.2</v>
+        <v>4.1</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3478,14 +3506,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 34538-2021</t>
+          <t>A 22459-2021</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44382</v>
+        <v>44326</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3497,13 +3525,8 @@
           <t>MUNKFORS</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G51" t="n">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3540,14 +3563,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 38945-2021</t>
+          <t>A 34538-2021</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44411</v>
+        <v>44382</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3559,8 +3582,13 @@
           <t>MUNKFORS</t>
         </is>
       </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G52" t="n">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3597,14 +3625,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 38947-2021</t>
+          <t>A 38945-2021</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
         <v>44411</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3617,7 +3645,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>9.699999999999999</v>
+        <v>1.1</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3654,14 +3682,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 46429-2021</t>
+          <t>A 38947-2021</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44441</v>
+        <v>44411</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3674,7 +3702,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>4.1</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3711,14 +3739,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 69319-2021</t>
+          <t>A 46429-2021</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44531</v>
+        <v>44441</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3731,7 +3759,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>0.9</v>
+        <v>4.1</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3768,14 +3796,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 69273-2021</t>
+          <t>A 69319-2021</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
         <v>44531</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3787,13 +3815,8 @@
           <t>MUNKFORS</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G56" t="n">
-        <v>2.6</v>
+        <v>0.9</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3830,14 +3853,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 449-2022</t>
+          <t>A 69273-2021</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>44566</v>
+        <v>44531</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3851,11 +3874,11 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -3892,14 +3915,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 13599-2022</t>
+          <t>A 449-2022</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44648</v>
+        <v>44566</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3911,8 +3934,13 @@
           <t>MUNKFORS</t>
         </is>
       </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G58" t="n">
-        <v>0.6</v>
+        <v>2.8</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -3949,14 +3977,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 27190-2022</t>
+          <t>A 13599-2022</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44741</v>
+        <v>44648</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3968,13 +3996,8 @@
           <t>MUNKFORS</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G59" t="n">
-        <v>11.5</v>
+        <v>0.6</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4011,14 +4034,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 28316-2022</t>
+          <t>A 27190-2022</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>44747</v>
+        <v>44741</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4030,8 +4053,13 @@
           <t>MUNKFORS</t>
         </is>
       </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G60" t="n">
-        <v>2.2</v>
+        <v>11.5</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4068,14 +4096,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 28674-2022</t>
+          <t>A 28316-2022</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44748</v>
+        <v>44747</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4088,7 +4116,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>3.2</v>
+        <v>2.2</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4125,14 +4153,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 30704-2022</t>
+          <t>A 28674-2022</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>44763</v>
+        <v>44748</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4145,7 +4173,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>0.9</v>
+        <v>3.2</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4182,14 +4210,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 30700-2022</t>
+          <t>A 30704-2022</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
         <v>44763</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4239,14 +4267,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 32389-2022</t>
+          <t>A 30700-2022</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>44782</v>
+        <v>44763</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4259,7 +4287,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>3.1</v>
+        <v>0.9</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4296,14 +4324,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 32595-2022</t>
+          <t>A 32389-2022</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>44783</v>
+        <v>44782</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4316,7 +4344,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4353,14 +4381,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 33908-2022</t>
+          <t>A 32595-2022</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>44790</v>
+        <v>44783</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4373,7 +4401,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.1</v>
+        <v>5</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4410,14 +4438,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 38713-2022</t>
+          <t>A 33908-2022</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>44815</v>
+        <v>44790</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4430,7 +4458,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>2</v>
+        <v>1.1</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4467,14 +4495,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 41396-2022</t>
+          <t>A 38713-2022</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>44826</v>
+        <v>44815</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4486,13 +4514,8 @@
           <t>MUNKFORS</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G68" t="n">
-        <v>14.4</v>
+        <v>2</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4529,14 +4552,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 60564-2022</t>
+          <t>A 41396-2022</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>44911</v>
+        <v>44826</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4554,7 +4577,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>3.1</v>
+        <v>14.4</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4591,14 +4614,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 4610-2023</t>
+          <t>A 60564-2022</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>44951</v>
+        <v>44911</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4610,8 +4633,13 @@
           <t>MUNKFORS</t>
         </is>
       </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G70" t="n">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4648,14 +4676,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 6654-2023</t>
+          <t>A 4610-2023</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>44966</v>
+        <v>44951</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4667,13 +4695,8 @@
           <t>MUNKFORS</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G71" t="n">
-        <v>7.7</v>
+        <v>2.8</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4710,14 +4733,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 7614-2023</t>
+          <t>A 6654-2023</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>44972</v>
+        <v>44966</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4729,8 +4752,13 @@
           <t>MUNKFORS</t>
         </is>
       </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G72" t="n">
-        <v>1.3</v>
+        <v>7.7</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4767,14 +4795,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 7618-2023</t>
+          <t>A 7614-2023</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
         <v>44972</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4787,7 +4815,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>3.9</v>
+        <v>1.3</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -4824,14 +4852,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 7646-2023</t>
+          <t>A 7618-2023</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
         <v>44972</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4844,7 +4872,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>0.4</v>
+        <v>3.9</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -4881,14 +4909,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 7678-2023</t>
+          <t>A 7646-2023</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
         <v>44972</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4901,7 +4929,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.2</v>
+        <v>0.4</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -4938,14 +4966,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 7683-2023</t>
+          <t>A 7678-2023</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
         <v>44972</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4958,7 +4986,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>0.2</v>
+        <v>1.2</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -4995,14 +5023,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 7688-2023</t>
+          <t>A 7683-2023</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
         <v>44972</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5015,7 +5043,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5052,14 +5080,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 7687-2023</t>
+          <t>A 7688-2023</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
         <v>44972</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5072,7 +5100,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5109,14 +5137,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 10588-2023</t>
+          <t>A 7687-2023</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>44988</v>
+        <v>44972</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5128,13 +5156,8 @@
           <t>MUNKFORS</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G79" t="n">
-        <v>1.8</v>
+        <v>0.4</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5171,14 +5194,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 18313-2023</t>
+          <t>A 10588-2023</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45041</v>
+        <v>44988</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5190,8 +5213,13 @@
           <t>MUNKFORS</t>
         </is>
       </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G80" t="n">
-        <v>2.9</v>
+        <v>1.8</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5228,14 +5256,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 27901-2023</t>
+          <t>A 18313-2023</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45098</v>
+        <v>45041</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5247,13 +5275,8 @@
           <t>MUNKFORS</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G81" t="n">
-        <v>0.6</v>
+        <v>2.9</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5290,14 +5313,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 35489-2023</t>
+          <t>A 27901-2023</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45146</v>
+        <v>45098</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5309,8 +5332,13 @@
           <t>MUNKFORS</t>
         </is>
       </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G82" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5347,76 +5375,71 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
+          <t>A 35489-2023</t>
+        </is>
+      </c>
+      <c r="B83" s="1" t="n">
+        <v>45146</v>
+      </c>
+      <c r="C83" s="1" t="n">
+        <v>45190</v>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>MUNKFORS</t>
+        </is>
+      </c>
+      <c r="G83" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
+      <c r="K83" t="n">
+        <v>0</v>
+      </c>
+      <c r="L83" t="n">
+        <v>0</v>
+      </c>
+      <c r="M83" t="n">
+        <v>0</v>
+      </c>
+      <c r="N83" t="n">
+        <v>0</v>
+      </c>
+      <c r="O83" t="n">
+        <v>0</v>
+      </c>
+      <c r="P83" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>0</v>
+      </c>
+      <c r="R83" s="2" t="inlineStr"/>
+    </row>
+    <row r="84" ht="15" customHeight="1">
+      <c r="A84" t="inlineStr">
+        <is>
           <t>A 43549-2023</t>
-        </is>
-      </c>
-      <c r="B83" s="1" t="n">
-        <v>45184</v>
-      </c>
-      <c r="C83" s="1" t="n">
-        <v>45189</v>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>MUNKFORS</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
-      <c r="G83" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>0</v>
-      </c>
-      <c r="K83" t="n">
-        <v>0</v>
-      </c>
-      <c r="L83" t="n">
-        <v>0</v>
-      </c>
-      <c r="M83" t="n">
-        <v>0</v>
-      </c>
-      <c r="N83" t="n">
-        <v>0</v>
-      </c>
-      <c r="O83" t="n">
-        <v>0</v>
-      </c>
-      <c r="P83" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q83" t="n">
-        <v>0</v>
-      </c>
-      <c r="R83" s="2" t="inlineStr"/>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>A 43554-2023</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
         <v>45184</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5434,39 +5457,101 @@
         </is>
       </c>
       <c r="G84" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0</v>
+      </c>
+      <c r="L84" t="n">
+        <v>0</v>
+      </c>
+      <c r="M84" t="n">
+        <v>0</v>
+      </c>
+      <c r="N84" t="n">
+        <v>0</v>
+      </c>
+      <c r="O84" t="n">
+        <v>0</v>
+      </c>
+      <c r="P84" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>0</v>
+      </c>
+      <c r="R84" s="2" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>A 43554-2023</t>
+        </is>
+      </c>
+      <c r="B85" s="1" t="n">
+        <v>45184</v>
+      </c>
+      <c r="C85" s="1" t="n">
+        <v>45190</v>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>MUNKFORS</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
+      <c r="G85" t="n">
         <v>2.5</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="n">
-        <v>0</v>
-      </c>
-      <c r="K84" t="n">
-        <v>0</v>
-      </c>
-      <c r="L84" t="n">
-        <v>0</v>
-      </c>
-      <c r="M84" t="n">
-        <v>0</v>
-      </c>
-      <c r="N84" t="n">
-        <v>0</v>
-      </c>
-      <c r="O84" t="n">
-        <v>0</v>
-      </c>
-      <c r="P84" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q84" t="n">
-        <v>0</v>
-      </c>
-      <c r="R84" s="2" t="inlineStr"/>
+      <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
+        <v>0</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0</v>
+      </c>
+      <c r="L85" t="n">
+        <v>0</v>
+      </c>
+      <c r="M85" t="n">
+        <v>0</v>
+      </c>
+      <c r="N85" t="n">
+        <v>0</v>
+      </c>
+      <c r="O85" t="n">
+        <v>0</v>
+      </c>
+      <c r="P85" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>0</v>
+      </c>
+      <c r="R85" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt MUNKFORS.xlsx
+++ b/Översikt MUNKFORS.xlsx
@@ -572,7 +572,7 @@
         <v>45188</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -657,7 +657,7 @@
         <v>43426</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -719,7 +719,7 @@
         <v>43446</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -776,7 +776,7 @@
         <v>43468</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>43472</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -890,7 +890,7 @@
         <v>43472</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -947,7 +947,7 @@
         <v>43573</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1009,7 +1009,7 @@
         <v>43614</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1071,7 +1071,7 @@
         <v>43640</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1133,7 +1133,7 @@
         <v>43640</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1195,7 +1195,7 @@
         <v>43656</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1257,7 +1257,7 @@
         <v>43662</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1319,7 +1319,7 @@
         <v>43682</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1381,7 +1381,7 @@
         <v>43726</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1438,7 +1438,7 @@
         <v>43745</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1495,7 +1495,7 @@
         <v>43780</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1557,7 +1557,7 @@
         <v>43780</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1619,7 +1619,7 @@
         <v>43783</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1676,7 +1676,7 @@
         <v>43787</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1733,7 +1733,7 @@
         <v>43795</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1790,7 +1790,7 @@
         <v>43797</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1852,7 +1852,7 @@
         <v>43802</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1914,7 +1914,7 @@
         <v>43817</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1971,7 +1971,7 @@
         <v>43833</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2033,7 +2033,7 @@
         <v>43837</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2095,7 +2095,7 @@
         <v>43842</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2157,7 +2157,7 @@
         <v>43879</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2214,7 +2214,7 @@
         <v>43888</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2271,7 +2271,7 @@
         <v>43913</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2328,7 +2328,7 @@
         <v>43921</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2390,7 +2390,7 @@
         <v>43941</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2452,7 +2452,7 @@
         <v>44000</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2509,7 +2509,7 @@
         <v>44047</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2571,7 +2571,7 @@
         <v>44061</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2633,7 +2633,7 @@
         <v>44061</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2695,7 +2695,7 @@
         <v>44077</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2757,7 +2757,7 @@
         <v>44077</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2819,7 +2819,7 @@
         <v>44101</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2876,7 +2876,7 @@
         <v>44101</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2938,7 +2938,7 @@
         <v>44105</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2995,7 +2995,7 @@
         <v>44112</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3052,7 +3052,7 @@
         <v>44124</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3109,7 +3109,7 @@
         <v>44148</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3166,7 +3166,7 @@
         <v>44161</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3223,7 +3223,7 @@
         <v>44217</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3285,7 +3285,7 @@
         <v>44229</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3342,7 +3342,7 @@
         <v>44238</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3399,7 +3399,7 @@
         <v>44258</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3456,7 +3456,7 @@
         <v>44258</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3513,7 +3513,7 @@
         <v>44326</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3570,7 +3570,7 @@
         <v>44382</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3632,7 +3632,7 @@
         <v>44411</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3689,7 +3689,7 @@
         <v>44411</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         <v>44441</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3803,7 +3803,7 @@
         <v>44531</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3860,7 +3860,7 @@
         <v>44531</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3922,7 +3922,7 @@
         <v>44566</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3984,7 +3984,7 @@
         <v>44648</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4041,7 +4041,7 @@
         <v>44741</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4103,7 +4103,7 @@
         <v>44747</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4160,7 +4160,7 @@
         <v>44748</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4217,7 +4217,7 @@
         <v>44763</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4274,7 +4274,7 @@
         <v>44763</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4331,7 +4331,7 @@
         <v>44782</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4388,7 +4388,7 @@
         <v>44783</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4445,7 +4445,7 @@
         <v>44790</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4502,7 +4502,7 @@
         <v>44815</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4559,7 +4559,7 @@
         <v>44826</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4621,7 +4621,7 @@
         <v>44911</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4683,7 +4683,7 @@
         <v>44951</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4740,7 +4740,7 @@
         <v>44966</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4802,7 +4802,7 @@
         <v>44972</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4859,7 +4859,7 @@
         <v>44972</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4916,7 +4916,7 @@
         <v>44972</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4973,7 +4973,7 @@
         <v>44972</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5030,7 +5030,7 @@
         <v>44972</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5087,7 +5087,7 @@
         <v>44972</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5144,7 +5144,7 @@
         <v>44972</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5201,7 +5201,7 @@
         <v>44988</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5263,7 +5263,7 @@
         <v>45041</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5320,7 +5320,7 @@
         <v>45098</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5382,7 +5382,7 @@
         <v>45146</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5439,7 +5439,7 @@
         <v>45184</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5501,7 +5501,7 @@
         <v>45184</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>

--- a/Översikt MUNKFORS.xlsx
+++ b/Översikt MUNKFORS.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y85"/>
+  <dimension ref="A1:Y86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>45188</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -657,7 +657,7 @@
         <v>43426</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -719,7 +719,7 @@
         <v>43446</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -776,7 +776,7 @@
         <v>43468</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>43472</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -890,7 +890,7 @@
         <v>43472</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -947,7 +947,7 @@
         <v>43573</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1009,7 +1009,7 @@
         <v>43614</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1071,7 +1071,7 @@
         <v>43640</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1133,7 +1133,7 @@
         <v>43640</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1195,7 +1195,7 @@
         <v>43656</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1257,7 +1257,7 @@
         <v>43662</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1319,7 +1319,7 @@
         <v>43682</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1381,7 +1381,7 @@
         <v>43726</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1438,7 +1438,7 @@
         <v>43745</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1495,7 +1495,7 @@
         <v>43780</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1557,7 +1557,7 @@
         <v>43780</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1619,7 +1619,7 @@
         <v>43783</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1676,7 +1676,7 @@
         <v>43787</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1733,7 +1733,7 @@
         <v>43795</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1790,7 +1790,7 @@
         <v>43797</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1852,7 +1852,7 @@
         <v>43802</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1914,7 +1914,7 @@
         <v>43817</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1971,7 +1971,7 @@
         <v>43833</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2033,7 +2033,7 @@
         <v>43837</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2095,7 +2095,7 @@
         <v>43842</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2157,7 +2157,7 @@
         <v>43879</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2214,7 +2214,7 @@
         <v>43888</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2271,7 +2271,7 @@
         <v>43913</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2328,7 +2328,7 @@
         <v>43921</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2390,7 +2390,7 @@
         <v>43941</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2452,7 +2452,7 @@
         <v>44000</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2509,7 +2509,7 @@
         <v>44047</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2571,7 +2571,7 @@
         <v>44061</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2633,7 +2633,7 @@
         <v>44061</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2695,7 +2695,7 @@
         <v>44077</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2757,7 +2757,7 @@
         <v>44077</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2819,7 +2819,7 @@
         <v>44101</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2876,7 +2876,7 @@
         <v>44101</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2938,7 +2938,7 @@
         <v>44105</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2995,7 +2995,7 @@
         <v>44112</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3052,7 +3052,7 @@
         <v>44124</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3109,7 +3109,7 @@
         <v>44148</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3166,7 +3166,7 @@
         <v>44161</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3223,7 +3223,7 @@
         <v>44217</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3285,7 +3285,7 @@
         <v>44229</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3342,7 +3342,7 @@
         <v>44238</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3399,7 +3399,7 @@
         <v>44258</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3456,7 +3456,7 @@
         <v>44258</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3513,7 +3513,7 @@
         <v>44326</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3570,7 +3570,7 @@
         <v>44382</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3632,7 +3632,7 @@
         <v>44411</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3689,7 +3689,7 @@
         <v>44411</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         <v>44441</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3803,7 +3803,7 @@
         <v>44531</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3860,7 +3860,7 @@
         <v>44531</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3922,7 +3922,7 @@
         <v>44566</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3984,7 +3984,7 @@
         <v>44648</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4041,7 +4041,7 @@
         <v>44741</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4103,7 +4103,7 @@
         <v>44747</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4160,7 +4160,7 @@
         <v>44748</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4217,7 +4217,7 @@
         <v>44763</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4274,7 +4274,7 @@
         <v>44763</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4331,7 +4331,7 @@
         <v>44782</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4388,7 +4388,7 @@
         <v>44783</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4445,7 +4445,7 @@
         <v>44790</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4502,7 +4502,7 @@
         <v>44815</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4559,7 +4559,7 @@
         <v>44826</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4621,7 +4621,7 @@
         <v>44911</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4683,7 +4683,7 @@
         <v>44951</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4740,7 +4740,7 @@
         <v>44966</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4802,7 +4802,7 @@
         <v>44972</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4859,7 +4859,7 @@
         <v>44972</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4916,7 +4916,7 @@
         <v>44972</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4973,7 +4973,7 @@
         <v>44972</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5030,7 +5030,7 @@
         <v>44972</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5087,7 +5087,7 @@
         <v>44972</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5144,7 +5144,7 @@
         <v>44972</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5201,7 +5201,7 @@
         <v>44988</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5263,7 +5263,7 @@
         <v>45041</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5320,7 +5320,7 @@
         <v>45098</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5382,7 +5382,7 @@
         <v>45146</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5439,7 +5439,7 @@
         <v>45184</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5491,7 +5491,7 @@
       </c>
       <c r="R84" s="2" t="inlineStr"/>
     </row>
-    <row r="85">
+    <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
           <t>A 43554-2023</t>
@@ -5501,7 +5501,7 @@
         <v>45184</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5552,6 +5552,68 @@
         <v>0</v>
       </c>
       <c r="R85" s="2" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>A 46447-2023</t>
+        </is>
+      </c>
+      <c r="B86" s="1" t="n">
+        <v>45197</v>
+      </c>
+      <c r="C86" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>MUNKFORS</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
+      <c r="G86" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
+      <c r="K86" t="n">
+        <v>0</v>
+      </c>
+      <c r="L86" t="n">
+        <v>0</v>
+      </c>
+      <c r="M86" t="n">
+        <v>0</v>
+      </c>
+      <c r="N86" t="n">
+        <v>0</v>
+      </c>
+      <c r="O86" t="n">
+        <v>0</v>
+      </c>
+      <c r="P86" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>0</v>
+      </c>
+      <c r="R86" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt MUNKFORS.xlsx
+++ b/Översikt MUNKFORS.xlsx
@@ -572,7 +572,7 @@
         <v>45188</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -657,7 +657,7 @@
         <v>43426</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -719,7 +719,7 @@
         <v>43446</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -776,7 +776,7 @@
         <v>43468</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>43472</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -890,7 +890,7 @@
         <v>43472</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -947,7 +947,7 @@
         <v>43573</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1009,7 +1009,7 @@
         <v>43614</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1071,7 +1071,7 @@
         <v>43640</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1133,7 +1133,7 @@
         <v>43640</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1195,7 +1195,7 @@
         <v>43656</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1257,7 +1257,7 @@
         <v>43662</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1319,7 +1319,7 @@
         <v>43682</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1381,7 +1381,7 @@
         <v>43726</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1438,7 +1438,7 @@
         <v>43745</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1495,7 +1495,7 @@
         <v>43780</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1557,7 +1557,7 @@
         <v>43780</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1619,7 +1619,7 @@
         <v>43783</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1676,7 +1676,7 @@
         <v>43787</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1733,7 +1733,7 @@
         <v>43795</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1790,7 +1790,7 @@
         <v>43797</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1852,7 +1852,7 @@
         <v>43802</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1914,7 +1914,7 @@
         <v>43817</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1971,7 +1971,7 @@
         <v>43833</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2033,7 +2033,7 @@
         <v>43837</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2095,7 +2095,7 @@
         <v>43842</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2157,7 +2157,7 @@
         <v>43879</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2214,7 +2214,7 @@
         <v>43888</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2271,7 +2271,7 @@
         <v>43913</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2328,7 +2328,7 @@
         <v>43921</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2390,7 +2390,7 @@
         <v>43941</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2452,7 +2452,7 @@
         <v>44000</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2509,7 +2509,7 @@
         <v>44047</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2571,7 +2571,7 @@
         <v>44061</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2633,7 +2633,7 @@
         <v>44061</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2695,7 +2695,7 @@
         <v>44077</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2757,7 +2757,7 @@
         <v>44077</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2819,7 +2819,7 @@
         <v>44101</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2876,7 +2876,7 @@
         <v>44101</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2938,7 +2938,7 @@
         <v>44105</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2995,7 +2995,7 @@
         <v>44112</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3052,7 +3052,7 @@
         <v>44124</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3109,7 +3109,7 @@
         <v>44148</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3166,7 +3166,7 @@
         <v>44161</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3223,7 +3223,7 @@
         <v>44217</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3285,7 +3285,7 @@
         <v>44229</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3342,7 +3342,7 @@
         <v>44238</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3399,7 +3399,7 @@
         <v>44258</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3456,7 +3456,7 @@
         <v>44258</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3513,7 +3513,7 @@
         <v>44326</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3570,7 +3570,7 @@
         <v>44382</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3632,7 +3632,7 @@
         <v>44411</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3689,7 +3689,7 @@
         <v>44411</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         <v>44441</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3803,7 +3803,7 @@
         <v>44531</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3860,7 +3860,7 @@
         <v>44531</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3922,7 +3922,7 @@
         <v>44566</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3984,7 +3984,7 @@
         <v>44648</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4041,7 +4041,7 @@
         <v>44741</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4103,7 +4103,7 @@
         <v>44747</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4160,7 +4160,7 @@
         <v>44748</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4217,7 +4217,7 @@
         <v>44763</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4274,7 +4274,7 @@
         <v>44763</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4331,7 +4331,7 @@
         <v>44782</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4388,7 +4388,7 @@
         <v>44783</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4445,7 +4445,7 @@
         <v>44790</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4502,7 +4502,7 @@
         <v>44815</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4559,7 +4559,7 @@
         <v>44826</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4621,7 +4621,7 @@
         <v>44911</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4683,7 +4683,7 @@
         <v>44951</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4740,7 +4740,7 @@
         <v>44966</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4802,7 +4802,7 @@
         <v>44972</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4859,7 +4859,7 @@
         <v>44972</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4916,7 +4916,7 @@
         <v>44972</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4973,7 +4973,7 @@
         <v>44972</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5030,7 +5030,7 @@
         <v>44972</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5087,7 +5087,7 @@
         <v>44972</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5144,7 +5144,7 @@
         <v>44972</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5201,7 +5201,7 @@
         <v>44988</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5263,7 +5263,7 @@
         <v>45041</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5320,7 +5320,7 @@
         <v>45098</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5382,7 +5382,7 @@
         <v>45146</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5439,7 +5439,7 @@
         <v>45184</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5501,7 +5501,7 @@
         <v>45184</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5563,7 +5563,7 @@
         <v>45197</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>

--- a/Översikt MUNKFORS.xlsx
+++ b/Översikt MUNKFORS.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y86"/>
+  <dimension ref="A1:Y87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>45188</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -657,7 +657,7 @@
         <v>43426</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -719,7 +719,7 @@
         <v>43446</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -776,7 +776,7 @@
         <v>43468</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>43472</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -890,7 +890,7 @@
         <v>43472</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -947,7 +947,7 @@
         <v>43573</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1009,7 +1009,7 @@
         <v>43614</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1071,7 +1071,7 @@
         <v>43640</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1133,7 +1133,7 @@
         <v>43640</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1195,7 +1195,7 @@
         <v>43656</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1257,7 +1257,7 @@
         <v>43662</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1319,7 +1319,7 @@
         <v>43682</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1381,7 +1381,7 @@
         <v>43726</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1438,7 +1438,7 @@
         <v>43745</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1495,7 +1495,7 @@
         <v>43780</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1557,7 +1557,7 @@
         <v>43780</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1619,7 +1619,7 @@
         <v>43783</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1676,7 +1676,7 @@
         <v>43787</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1733,7 +1733,7 @@
         <v>43795</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1790,7 +1790,7 @@
         <v>43797</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1852,7 +1852,7 @@
         <v>43802</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1914,7 +1914,7 @@
         <v>43817</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1971,7 +1971,7 @@
         <v>43833</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2033,7 +2033,7 @@
         <v>43837</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2095,7 +2095,7 @@
         <v>43842</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2157,7 +2157,7 @@
         <v>43879</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2214,7 +2214,7 @@
         <v>43888</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2271,7 +2271,7 @@
         <v>43913</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2328,7 +2328,7 @@
         <v>43921</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2390,7 +2390,7 @@
         <v>43941</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2452,7 +2452,7 @@
         <v>44000</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2509,7 +2509,7 @@
         <v>44047</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2571,7 +2571,7 @@
         <v>44061</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2633,7 +2633,7 @@
         <v>44061</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2695,7 +2695,7 @@
         <v>44077</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2757,7 +2757,7 @@
         <v>44077</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2819,7 +2819,7 @@
         <v>44101</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2876,7 +2876,7 @@
         <v>44101</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2938,7 +2938,7 @@
         <v>44105</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2995,7 +2995,7 @@
         <v>44112</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3052,7 +3052,7 @@
         <v>44124</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3109,7 +3109,7 @@
         <v>44148</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3166,7 +3166,7 @@
         <v>44161</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3223,7 +3223,7 @@
         <v>44217</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3285,7 +3285,7 @@
         <v>44229</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3342,7 +3342,7 @@
         <v>44238</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3399,7 +3399,7 @@
         <v>44258</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3456,7 +3456,7 @@
         <v>44258</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3513,7 +3513,7 @@
         <v>44326</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3570,7 +3570,7 @@
         <v>44382</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3632,7 +3632,7 @@
         <v>44411</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3689,7 +3689,7 @@
         <v>44411</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         <v>44441</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3803,7 +3803,7 @@
         <v>44531</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3860,7 +3860,7 @@
         <v>44531</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3922,7 +3922,7 @@
         <v>44566</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3984,7 +3984,7 @@
         <v>44648</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4041,7 +4041,7 @@
         <v>44741</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4103,7 +4103,7 @@
         <v>44747</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4160,7 +4160,7 @@
         <v>44748</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4217,7 +4217,7 @@
         <v>44763</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4274,7 +4274,7 @@
         <v>44763</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4331,7 +4331,7 @@
         <v>44782</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4388,7 +4388,7 @@
         <v>44783</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4445,7 +4445,7 @@
         <v>44790</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4502,7 +4502,7 @@
         <v>44815</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4559,7 +4559,7 @@
         <v>44826</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4621,7 +4621,7 @@
         <v>44911</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4683,7 +4683,7 @@
         <v>44951</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4740,7 +4740,7 @@
         <v>44966</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4802,7 +4802,7 @@
         <v>44972</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4859,7 +4859,7 @@
         <v>44972</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4916,7 +4916,7 @@
         <v>44972</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4973,7 +4973,7 @@
         <v>44972</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5030,7 +5030,7 @@
         <v>44972</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5087,7 +5087,7 @@
         <v>44972</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5144,7 +5144,7 @@
         <v>44972</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5201,7 +5201,7 @@
         <v>44988</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5263,7 +5263,7 @@
         <v>45041</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5320,7 +5320,7 @@
         <v>45098</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5382,7 +5382,7 @@
         <v>45146</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5439,7 +5439,7 @@
         <v>45184</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5501,7 +5501,7 @@
         <v>45184</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5553,7 +5553,7 @@
       </c>
       <c r="R85" s="2" t="inlineStr"/>
     </row>
-    <row r="86">
+    <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
           <t>A 46447-2023</t>
@@ -5563,7 +5563,7 @@
         <v>45197</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5614,6 +5614,63 @@
         <v>0</v>
       </c>
       <c r="R86" s="2" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>A 47646-2023</t>
+        </is>
+      </c>
+      <c r="B87" s="1" t="n">
+        <v>45203</v>
+      </c>
+      <c r="C87" s="1" t="n">
+        <v>45204</v>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>MUNKFORS</t>
+        </is>
+      </c>
+      <c r="G87" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
+      <c r="K87" t="n">
+        <v>0</v>
+      </c>
+      <c r="L87" t="n">
+        <v>0</v>
+      </c>
+      <c r="M87" t="n">
+        <v>0</v>
+      </c>
+      <c r="N87" t="n">
+        <v>0</v>
+      </c>
+      <c r="O87" t="n">
+        <v>0</v>
+      </c>
+      <c r="P87" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>0</v>
+      </c>
+      <c r="R87" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt MUNKFORS.xlsx
+++ b/Översikt MUNKFORS.xlsx
@@ -572,7 +572,7 @@
         <v>45188</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -657,7 +657,7 @@
         <v>43426</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -719,7 +719,7 @@
         <v>43446</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -776,7 +776,7 @@
         <v>43468</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>43472</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -890,7 +890,7 @@
         <v>43472</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -947,7 +947,7 @@
         <v>43573</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1009,7 +1009,7 @@
         <v>43614</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1071,7 +1071,7 @@
         <v>43640</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1133,7 +1133,7 @@
         <v>43640</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1195,7 +1195,7 @@
         <v>43656</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1257,7 +1257,7 @@
         <v>43662</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1319,7 +1319,7 @@
         <v>43682</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1381,7 +1381,7 @@
         <v>43726</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1438,7 +1438,7 @@
         <v>43745</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1495,7 +1495,7 @@
         <v>43780</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1557,7 +1557,7 @@
         <v>43780</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1619,7 +1619,7 @@
         <v>43783</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1676,7 +1676,7 @@
         <v>43787</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1733,7 +1733,7 @@
         <v>43795</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1790,7 +1790,7 @@
         <v>43797</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1852,7 +1852,7 @@
         <v>43802</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1914,7 +1914,7 @@
         <v>43817</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1971,7 +1971,7 @@
         <v>43833</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2033,7 +2033,7 @@
         <v>43837</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2095,7 +2095,7 @@
         <v>43842</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2157,7 +2157,7 @@
         <v>43879</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2214,7 +2214,7 @@
         <v>43888</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2271,7 +2271,7 @@
         <v>43913</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2328,7 +2328,7 @@
         <v>43921</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2390,7 +2390,7 @@
         <v>43941</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2452,7 +2452,7 @@
         <v>44000</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2509,7 +2509,7 @@
         <v>44047</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2571,7 +2571,7 @@
         <v>44061</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2633,7 +2633,7 @@
         <v>44061</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2695,7 +2695,7 @@
         <v>44077</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2757,7 +2757,7 @@
         <v>44077</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2819,7 +2819,7 @@
         <v>44101</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2876,7 +2876,7 @@
         <v>44101</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2938,7 +2938,7 @@
         <v>44105</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2995,7 +2995,7 @@
         <v>44112</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3052,7 +3052,7 @@
         <v>44124</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3109,7 +3109,7 @@
         <v>44148</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3166,7 +3166,7 @@
         <v>44161</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3223,7 +3223,7 @@
         <v>44217</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3285,7 +3285,7 @@
         <v>44229</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3342,7 +3342,7 @@
         <v>44238</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3399,7 +3399,7 @@
         <v>44258</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3456,7 +3456,7 @@
         <v>44258</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3513,7 +3513,7 @@
         <v>44326</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3570,7 +3570,7 @@
         <v>44382</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3632,7 +3632,7 @@
         <v>44411</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3689,7 +3689,7 @@
         <v>44411</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         <v>44441</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3803,7 +3803,7 @@
         <v>44531</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3860,7 +3860,7 @@
         <v>44531</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3922,7 +3922,7 @@
         <v>44566</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3984,7 +3984,7 @@
         <v>44648</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4041,7 +4041,7 @@
         <v>44741</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4103,7 +4103,7 @@
         <v>44747</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4160,7 +4160,7 @@
         <v>44748</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4217,7 +4217,7 @@
         <v>44763</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4274,7 +4274,7 @@
         <v>44763</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4331,7 +4331,7 @@
         <v>44782</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4388,7 +4388,7 @@
         <v>44783</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4445,7 +4445,7 @@
         <v>44790</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4502,7 +4502,7 @@
         <v>44815</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4559,7 +4559,7 @@
         <v>44826</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4621,7 +4621,7 @@
         <v>44911</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4683,7 +4683,7 @@
         <v>44951</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4740,7 +4740,7 @@
         <v>44966</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4802,7 +4802,7 @@
         <v>44972</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4859,7 +4859,7 @@
         <v>44972</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4916,7 +4916,7 @@
         <v>44972</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4973,7 +4973,7 @@
         <v>44972</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5030,7 +5030,7 @@
         <v>44972</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5087,7 +5087,7 @@
         <v>44972</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5144,7 +5144,7 @@
         <v>44972</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5201,7 +5201,7 @@
         <v>44988</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5263,7 +5263,7 @@
         <v>45041</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5320,7 +5320,7 @@
         <v>45098</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5382,7 +5382,7 @@
         <v>45146</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5439,7 +5439,7 @@
         <v>45184</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5501,7 +5501,7 @@
         <v>45184</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5563,7 +5563,7 @@
         <v>45197</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5625,7 +5625,7 @@
         <v>45203</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>

--- a/Översikt MUNKFORS.xlsx
+++ b/Översikt MUNKFORS.xlsx
@@ -572,7 +572,7 @@
         <v>45188</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -657,7 +657,7 @@
         <v>43426</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -719,7 +719,7 @@
         <v>43446</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -776,7 +776,7 @@
         <v>43468</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>43472</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -890,7 +890,7 @@
         <v>43472</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -947,7 +947,7 @@
         <v>43573</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1009,7 +1009,7 @@
         <v>43614</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1071,7 +1071,7 @@
         <v>43640</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1133,7 +1133,7 @@
         <v>43640</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1195,7 +1195,7 @@
         <v>43656</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1257,7 +1257,7 @@
         <v>43662</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1319,7 +1319,7 @@
         <v>43682</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1381,7 +1381,7 @@
         <v>43726</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1438,7 +1438,7 @@
         <v>43745</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1495,7 +1495,7 @@
         <v>43780</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1557,7 +1557,7 @@
         <v>43780</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1619,7 +1619,7 @@
         <v>43783</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1676,7 +1676,7 @@
         <v>43787</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1733,7 +1733,7 @@
         <v>43795</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1790,7 +1790,7 @@
         <v>43797</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1852,7 +1852,7 @@
         <v>43802</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1914,7 +1914,7 @@
         <v>43817</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1971,7 +1971,7 @@
         <v>43833</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2033,7 +2033,7 @@
         <v>43837</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2095,7 +2095,7 @@
         <v>43842</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2157,7 +2157,7 @@
         <v>43879</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2214,7 +2214,7 @@
         <v>43888</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2271,7 +2271,7 @@
         <v>43913</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2328,7 +2328,7 @@
         <v>43921</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2390,7 +2390,7 @@
         <v>43941</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2452,7 +2452,7 @@
         <v>44000</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2509,7 +2509,7 @@
         <v>44047</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2571,7 +2571,7 @@
         <v>44061</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2633,7 +2633,7 @@
         <v>44061</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2695,7 +2695,7 @@
         <v>44077</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2757,7 +2757,7 @@
         <v>44077</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2819,7 +2819,7 @@
         <v>44101</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2876,7 +2876,7 @@
         <v>44101</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2938,7 +2938,7 @@
         <v>44105</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2995,7 +2995,7 @@
         <v>44112</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3052,7 +3052,7 @@
         <v>44124</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3109,7 +3109,7 @@
         <v>44148</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3166,7 +3166,7 @@
         <v>44161</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3223,7 +3223,7 @@
         <v>44217</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3285,7 +3285,7 @@
         <v>44229</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3342,7 +3342,7 @@
         <v>44238</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3399,7 +3399,7 @@
         <v>44258</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3456,7 +3456,7 @@
         <v>44258</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3513,7 +3513,7 @@
         <v>44326</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3570,7 +3570,7 @@
         <v>44382</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3632,7 +3632,7 @@
         <v>44411</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3689,7 +3689,7 @@
         <v>44411</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         <v>44441</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3803,7 +3803,7 @@
         <v>44531</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3860,7 +3860,7 @@
         <v>44531</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3922,7 +3922,7 @@
         <v>44566</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3984,7 +3984,7 @@
         <v>44648</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4041,7 +4041,7 @@
         <v>44741</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4103,7 +4103,7 @@
         <v>44747</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4160,7 +4160,7 @@
         <v>44748</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4217,7 +4217,7 @@
         <v>44763</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4274,7 +4274,7 @@
         <v>44763</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4331,7 +4331,7 @@
         <v>44782</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4388,7 +4388,7 @@
         <v>44783</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4445,7 +4445,7 @@
         <v>44790</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4502,7 +4502,7 @@
         <v>44815</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4559,7 +4559,7 @@
         <v>44826</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4621,7 +4621,7 @@
         <v>44911</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4683,7 +4683,7 @@
         <v>44951</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4740,7 +4740,7 @@
         <v>44966</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4802,7 +4802,7 @@
         <v>44972</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4859,7 +4859,7 @@
         <v>44972</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4916,7 +4916,7 @@
         <v>44972</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4973,7 +4973,7 @@
         <v>44972</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5030,7 +5030,7 @@
         <v>44972</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5087,7 +5087,7 @@
         <v>44972</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5144,7 +5144,7 @@
         <v>44972</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5201,7 +5201,7 @@
         <v>44988</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5263,7 +5263,7 @@
         <v>45041</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5320,7 +5320,7 @@
         <v>45098</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5382,7 +5382,7 @@
         <v>45146</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5439,7 +5439,7 @@
         <v>45184</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5501,7 +5501,7 @@
         <v>45184</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5563,7 +5563,7 @@
         <v>45197</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5625,7 +5625,7 @@
         <v>45203</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
